--- a/raw_data/20200818_saline/20200818_Sensor2_Test_49.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_49.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7F7907-5B6E-4C03-B58C-353264D3BA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>43573.606799</v>
+        <v>43573.606799000001</v>
       </c>
       <c r="B2" s="1">
-        <v>12.103780</v>
+        <v>12.10378</v>
       </c>
       <c r="C2" s="1">
-        <v>1253.090000</v>
+        <v>1253.0899999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-279.727000</v>
+        <v>-279.72699999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>43583.998598</v>
+        <v>43583.998597999998</v>
       </c>
       <c r="G2" s="1">
-        <v>12.106666</v>
+        <v>12.106666000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1274.620000</v>
+        <v>1274.6199999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-243.852000</v>
+        <v>-243.852</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>43594.148116</v>
+        <v>43594.148115999997</v>
       </c>
       <c r="L2" s="1">
         <v>12.109486</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.930000</v>
+        <v>1306.93</v>
       </c>
       <c r="N2" s="1">
-        <v>-191.842000</v>
+        <v>-191.84200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>43604.966854</v>
+        <v>43604.966853999998</v>
       </c>
       <c r="Q2" s="1">
         <v>12.112491</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.850000</v>
+        <v>1318.85</v>
       </c>
       <c r="S2" s="1">
-        <v>-177.139000</v>
+        <v>-177.13900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>43615.528920</v>
+        <v>43615.528919999997</v>
       </c>
       <c r="V2" s="1">
         <v>12.115425</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.590000</v>
+        <v>1332.59</v>
       </c>
       <c r="X2" s="1">
-        <v>-166.563000</v>
+        <v>-166.56299999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>43625.921338</v>
@@ -556,315 +972,315 @@
         <v>12.118311</v>
       </c>
       <c r="AB2" s="1">
-        <v>1351.030000</v>
+        <v>1351.03</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.069000</v>
+        <v>-167.06899999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>43636.480668</v>
+        <v>43636.480667999997</v>
       </c>
       <c r="AF2" s="1">
         <v>12.121245</v>
       </c>
       <c r="AG2" s="1">
-        <v>1364.690000</v>
+        <v>1364.69</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.617000</v>
+        <v>-177.61699999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>43646.924465</v>
+        <v>43646.924464999996</v>
       </c>
       <c r="AK2" s="1">
         <v>12.124146</v>
       </c>
       <c r="AL2" s="1">
-        <v>1385.930000</v>
+        <v>1385.93</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.206000</v>
+        <v>-208.20599999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>43657.805697</v>
+        <v>43657.805697000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.127168</v>
+        <v>12.127167999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1407.880000</v>
+        <v>1407.88</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.415000</v>
+        <v>-252.41499999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>43668.529170</v>
+        <v>43668.529170000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>12.130147</v>
+        <v>12.130146999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.600000</v>
+        <v>1432.6</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.575000</v>
+        <v>-312.57499999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>43679.358356</v>
+        <v>43679.358355999997</v>
       </c>
       <c r="AZ2" s="1">
         <v>12.133155</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.769000</v>
+        <v>-364.76900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>43689.909223</v>
+        <v>43689.909223000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.136086</v>
+        <v>12.136086000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1537.260000</v>
+        <v>1537.26</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.551000</v>
+        <v>-613.55100000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>43700.896135</v>
+        <v>43700.896135000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>12.139138</v>
+        <v>12.139138000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1691.370000</v>
+        <v>1691.37</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1059.800000</v>
+        <v>-1059.8</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>43711.987144</v>
+        <v>43711.987143999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.142219</v>
+        <v>12.142219000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1985.360000</v>
+        <v>1985.36</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1833.060000</v>
+        <v>-1833.06</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>43723.890665</v>
+        <v>43723.890664999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.145525</v>
+        <v>12.145524999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2373.690000</v>
+        <v>2373.69</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2724.800000</v>
+        <v>-2724.8</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>43734.759466</v>
+        <v>43734.759466000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.148544</v>
+        <v>12.148543999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2854.970000</v>
+        <v>2854.97</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3704.110000</v>
+        <v>-3704.11</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>43745.648668</v>
+        <v>43745.648668000002</v>
       </c>
       <c r="CD2" s="1">
         <v>12.151569</v>
       </c>
       <c r="CE2" s="1">
-        <v>4268.760000</v>
+        <v>4268.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6054.020000</v>
+        <v>-6054.02</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>43573.956515</v>
+        <v>43573.956514999998</v>
       </c>
       <c r="B3" s="1">
-        <v>12.103877</v>
+        <v>12.103877000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1252.920000</v>
+        <v>1252.92</v>
       </c>
       <c r="D3" s="1">
-        <v>-279.427000</v>
+        <v>-279.42700000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>43584.378913</v>
       </c>
       <c r="G3" s="1">
-        <v>12.106772</v>
+        <v>12.106771999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1274.230000</v>
+        <v>1274.23</v>
       </c>
       <c r="I3" s="1">
-        <v>-244.664000</v>
+        <v>-244.66399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>43594.877764</v>
+        <v>43594.877763999997</v>
       </c>
       <c r="L3" s="1">
         <v>12.109688</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.740000</v>
+        <v>1306.74</v>
       </c>
       <c r="N3" s="1">
-        <v>-191.697000</v>
+        <v>-191.697</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>43605.351253</v>
+        <v>43605.351253000001</v>
       </c>
       <c r="Q3" s="1">
         <v>12.112598</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.920000</v>
+        <v>1318.92</v>
       </c>
       <c r="S3" s="1">
-        <v>-177.092000</v>
+        <v>-177.09200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>43615.866935</v>
+        <v>43615.866934999998</v>
       </c>
       <c r="V3" s="1">
-        <v>12.115519</v>
+        <v>12.115519000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.700000</v>
+        <v>1332.7</v>
       </c>
       <c r="X3" s="1">
-        <v>-166.829000</v>
+        <v>-166.82900000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>43626.279482</v>
+        <v>43626.279481999998</v>
       </c>
       <c r="AA3" s="1">
         <v>12.118411</v>
       </c>
       <c r="AB3" s="1">
-        <v>1351.020000</v>
+        <v>1351.02</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.036000</v>
+        <v>-167.036</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>43637.185514</v>
+        <v>43637.185513999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.121440</v>
+        <v>12.12144</v>
       </c>
       <c r="AG3" s="1">
-        <v>1364.730000</v>
+        <v>1364.73</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.659000</v>
+        <v>-177.65899999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>43647.614863</v>
+        <v>43647.614863000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>12.124337</v>
+        <v>12.124337000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1385.880000</v>
+        <v>1385.88</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.204000</v>
+        <v>-208.20400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>43658.248629</v>
+        <v>43658.248629000002</v>
       </c>
       <c r="AP3" s="1">
         <v>12.127291</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1407.900000</v>
+        <v>1407.9</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.392000</v>
+        <v>-252.392</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>43668.894257</v>
@@ -873,180 +1289,180 @@
         <v>12.130248</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.590000</v>
+        <v>1432.59</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.553000</v>
+        <v>-312.553</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>43679.718916</v>
+        <v>43679.718915999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.133255</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.835000</v>
+        <v>-364.83499999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>43690.291173</v>
+        <v>43690.291172999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.136192</v>
+        <v>12.136191999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1537.260000</v>
+        <v>1537.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.583000</v>
+        <v>-613.58299999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>43701.328616</v>
+        <v>43701.328615999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>12.139258</v>
       </c>
       <c r="BK3" s="1">
-        <v>1691.250000</v>
+        <v>1691.25</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1059.700000</v>
+        <v>-1059.7</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>43712.424155</v>
+        <v>43712.424155000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>12.142340</v>
+        <v>12.142340000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1985.420000</v>
+        <v>1985.42</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1833.550000</v>
+        <v>-1833.55</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>43724.091050</v>
+        <v>43724.091050000003</v>
       </c>
       <c r="BT3" s="1">
         <v>12.145581</v>
       </c>
       <c r="BU3" s="1">
-        <v>2374.020000</v>
+        <v>2374.02</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2725.640000</v>
+        <v>-2725.64</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>43735.251064</v>
+        <v>43735.251063999996</v>
       </c>
       <c r="BY3" s="1">
         <v>12.148681</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2855.410000</v>
+        <v>2855.41</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3704.030000</v>
+        <v>-3704.03</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>43746.212091</v>
+        <v>43746.212091000001</v>
       </c>
       <c r="CD3" s="1">
         <v>12.151726</v>
       </c>
       <c r="CE3" s="1">
-        <v>4271.720000</v>
+        <v>4271.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6052.990000</v>
+        <v>-6052.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>43574.646451</v>
+        <v>43574.646451000001</v>
       </c>
       <c r="B4" s="1">
         <v>12.104068</v>
       </c>
       <c r="C4" s="1">
-        <v>1253.300000</v>
+        <v>1253.3</v>
       </c>
       <c r="D4" s="1">
-        <v>-279.633000</v>
+        <v>-279.63299999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>43585.074800</v>
+        <v>43585.074800000002</v>
       </c>
       <c r="G4" s="1">
-        <v>12.106965</v>
+        <v>12.106965000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1274.750000</v>
+        <v>1274.75</v>
       </c>
       <c r="I4" s="1">
-        <v>-244.024000</v>
+        <v>-244.024</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>43595.221497</v>
+        <v>43595.221496999999</v>
       </c>
       <c r="L4" s="1">
-        <v>12.109784</v>
+        <v>12.109783999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.980000</v>
+        <v>1306.98</v>
       </c>
       <c r="N4" s="1">
-        <v>-191.966000</v>
+        <v>-191.96600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>43605.702949</v>
+        <v>43605.702948999999</v>
       </c>
       <c r="Q4" s="1">
         <v>12.112695</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.980000</v>
+        <v>1318.98</v>
       </c>
       <c r="S4" s="1">
-        <v>-177.093000</v>
+        <v>-177.09299999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>43616.206199</v>
@@ -1055,710 +1471,710 @@
         <v>12.115613</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.590000</v>
+        <v>1332.59</v>
       </c>
       <c r="X4" s="1">
-        <v>-166.735000</v>
+        <v>-166.73500000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>43626.944629</v>
+        <v>43626.944628999998</v>
       </c>
       <c r="AA4" s="1">
         <v>12.118596</v>
       </c>
       <c r="AB4" s="1">
-        <v>1351.130000</v>
+        <v>1351.13</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.018000</v>
+        <v>-167.018</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>43637.549579</v>
+        <v>43637.549578999999</v>
       </c>
       <c r="AF4" s="1">
         <v>12.121542</v>
       </c>
       <c r="AG4" s="1">
-        <v>1364.590000</v>
+        <v>1364.59</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.529000</v>
+        <v>-177.529</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>43647.998801</v>
+        <v>43647.998801000002</v>
       </c>
       <c r="AK4" s="1">
         <v>12.124444</v>
       </c>
       <c r="AL4" s="1">
-        <v>1385.890000</v>
+        <v>1385.89</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.230000</v>
+        <v>-208.23</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>43658.610175</v>
+        <v>43658.610175000002</v>
       </c>
       <c r="AP4" s="1">
         <v>12.127392</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1407.870000</v>
+        <v>1407.87</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.386000</v>
+        <v>-252.386</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>43669.259281</v>
+        <v>43669.259280999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>12.130350</v>
+        <v>12.13035</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.600000</v>
+        <v>1432.6</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.558000</v>
+        <v>-312.55799999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>43680.079506</v>
+        <v>43680.079506000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>12.133355</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.750000</v>
+        <v>-364.75</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>43690.711252</v>
+        <v>43690.711252000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>12.136309</v>
+        <v>12.136309000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.613000</v>
+        <v>-613.61300000000006</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>43701.660473</v>
+        <v>43701.660473000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.139350</v>
+        <v>12.13935</v>
       </c>
       <c r="BK4" s="1">
-        <v>1691.430000</v>
+        <v>1691.43</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1059.670000</v>
+        <v>-1059.67</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>43712.832824</v>
+        <v>43712.832823999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.142454</v>
+        <v>12.142454000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1985.220000</v>
+        <v>1985.22</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1833.410000</v>
+        <v>-1833.41</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>43724.501705</v>
+        <v>43724.501705000002</v>
       </c>
       <c r="BT4" s="1">
         <v>12.145695</v>
       </c>
       <c r="BU4" s="1">
-        <v>2374.190000</v>
+        <v>2374.19</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2726.100000</v>
+        <v>-2726.1</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>43735.684023</v>
+        <v>43735.684023000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.148801</v>
+        <v>12.148801000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2855.070000</v>
+        <v>2855.07</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3703.390000</v>
+        <v>-3703.39</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>43746.734874</v>
+        <v>43746.734874000002</v>
       </c>
       <c r="CD4" s="1">
         <v>12.151871</v>
       </c>
       <c r="CE4" s="1">
-        <v>4265.310000</v>
+        <v>4265.3100000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6067.310000</v>
+        <v>-6067.31</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>43574.989150</v>
+        <v>43574.989150000001</v>
       </c>
       <c r="B5" s="1">
-        <v>12.104164</v>
+        <v>12.104164000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1253.080000</v>
+        <v>1253.08</v>
       </c>
       <c r="D5" s="1">
-        <v>-279.533000</v>
+        <v>-279.53300000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>43585.413568</v>
+        <v>43585.413568000004</v>
       </c>
       <c r="G5" s="1">
         <v>12.107059</v>
       </c>
       <c r="H5" s="1">
-        <v>1274.030000</v>
+        <v>1274.03</v>
       </c>
       <c r="I5" s="1">
-        <v>-243.451000</v>
+        <v>-243.45099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>43595.568164</v>
+        <v>43595.568163999997</v>
       </c>
       <c r="L5" s="1">
-        <v>12.109880</v>
+        <v>12.10988</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.860000</v>
+        <v>1306.8599999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-191.916000</v>
+        <v>-191.916</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>43606.374996</v>
+        <v>43606.374995999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.112882</v>
+        <v>12.112882000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.970000</v>
+        <v>1318.97</v>
       </c>
       <c r="S5" s="1">
-        <v>-177.250000</v>
+        <v>-177.25</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>43616.868390</v>
+        <v>43616.868390000003</v>
       </c>
       <c r="V5" s="1">
-        <v>12.115797</v>
+        <v>12.115797000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.650000</v>
+        <v>1332.65</v>
       </c>
       <c r="X5" s="1">
-        <v>-166.647000</v>
+        <v>-166.64699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>43627.325016</v>
+        <v>43627.325016000003</v>
       </c>
       <c r="AA5" s="1">
         <v>12.118701</v>
       </c>
       <c r="AB5" s="1">
-        <v>1351.140000</v>
+        <v>1351.14</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.026000</v>
+        <v>-167.02600000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>43637.895755</v>
+        <v>43637.895754999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>12.121638</v>
+        <v>12.121638000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1364.610000</v>
+        <v>1364.61</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.600000</v>
+        <v>-177.6</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>43648.345470</v>
+        <v>43648.34547</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.124540</v>
+        <v>12.12454</v>
       </c>
       <c r="AL5" s="1">
-        <v>1385.890000</v>
+        <v>1385.89</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.224000</v>
+        <v>-208.22399999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>43658.968782</v>
+        <v>43658.968782000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.127491</v>
+        <v>12.127490999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1407.860000</v>
+        <v>1407.86</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.393000</v>
+        <v>-252.393</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>43669.686864</v>
+        <v>43669.686864000003</v>
       </c>
       <c r="AU5" s="1">
         <v>12.130469</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.590000</v>
+        <v>1432.59</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.568000</v>
+        <v>-312.56799999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>43680.502594</v>
+        <v>43680.502593999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>12.133473</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.801000</v>
+        <v>-364.80099999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>43691.009876</v>
+        <v>43691.009875999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.136392</v>
+        <v>12.136392000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.600000</v>
+        <v>-613.6</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>43702.034423</v>
+        <v>43702.034422999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.139454</v>
+        <v>12.139454000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1691.350000</v>
+        <v>1691.35</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1059.830000</v>
+        <v>-1059.83</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>43713.230150</v>
+        <v>43713.230150000003</v>
       </c>
       <c r="BO5" s="1">
         <v>12.142564</v>
       </c>
       <c r="BP5" s="1">
-        <v>1985.120000</v>
+        <v>1985.12</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1833.280000</v>
+        <v>-1833.28</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>43724.929753</v>
+        <v>43724.929752999997</v>
       </c>
       <c r="BT5" s="1">
         <v>12.145814</v>
       </c>
       <c r="BU5" s="1">
-        <v>2374.290000</v>
+        <v>2374.29</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2726.610000</v>
+        <v>-2726.61</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>43736.109613</v>
+        <v>43736.109613000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.148919</v>
+        <v>12.148918999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2854.390000</v>
+        <v>2854.39</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3703.450000</v>
+        <v>-3703.45</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>43747.253691</v>
+        <v>43747.253690999998</v>
       </c>
       <c r="CD5" s="1">
         <v>12.152015</v>
       </c>
       <c r="CE5" s="1">
-        <v>4264.930000</v>
+        <v>4264.93</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6056.610000</v>
+        <v>-6056.61</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>43575.340317</v>
+        <v>43575.340317000002</v>
       </c>
       <c r="B6" s="1">
-        <v>12.104261</v>
+        <v>12.104260999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1253.110000</v>
+        <v>1253.1099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-279.950000</v>
+        <v>-279.95</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>43585.758289</v>
+        <v>43585.758288999998</v>
       </c>
       <c r="G6" s="1">
-        <v>12.107155</v>
+        <v>12.107155000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1274.040000</v>
+        <v>1274.04</v>
       </c>
       <c r="I6" s="1">
-        <v>-243.589000</v>
+        <v>-243.589</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>43596.231811</v>
+        <v>43596.231810999998</v>
       </c>
       <c r="L6" s="1">
-        <v>12.110064</v>
+        <v>12.110063999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.870000</v>
+        <v>1306.8699999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-191.917000</v>
+        <v>-191.917</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>43606.750468</v>
+        <v>43606.750467999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>12.112986</v>
+        <v>12.112985999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.880000</v>
+        <v>1318.88</v>
       </c>
       <c r="S6" s="1">
-        <v>-177.166000</v>
+        <v>-177.166</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>43617.235397</v>
+        <v>43617.235396999997</v>
       </c>
       <c r="V6" s="1">
-        <v>12.115899</v>
+        <v>12.115899000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.700000</v>
+        <v>1332.7</v>
       </c>
       <c r="X6" s="1">
-        <v>-166.559000</v>
+        <v>-166.559</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>43627.673235</v>
+        <v>43627.673235000002</v>
       </c>
       <c r="AA6" s="1">
         <v>12.118798</v>
       </c>
       <c r="AB6" s="1">
-        <v>1351.190000</v>
+        <v>1351.19</v>
       </c>
       <c r="AC6" s="1">
-        <v>-166.903000</v>
+        <v>-166.90299999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>43638.237033</v>
+        <v>43638.237032999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.121733</v>
+        <v>12.121733000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1364.620000</v>
+        <v>1364.62</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.618000</v>
+        <v>-177.61799999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>43648.695179</v>
+        <v>43648.695179000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.124638</v>
+        <v>12.124637999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1385.910000</v>
+        <v>1385.91</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.205000</v>
+        <v>-208.20500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>43659.391876</v>
+        <v>43659.391876000002</v>
       </c>
       <c r="AP6" s="1">
         <v>12.127609</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1407.840000</v>
+        <v>1407.84</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.360000</v>
+        <v>-252.36</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>43669.987905</v>
+        <v>43669.987905000002</v>
       </c>
       <c r="AU6" s="1">
         <v>12.130552</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.600000</v>
+        <v>1432.6</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.580000</v>
+        <v>-312.58</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>43680.796258</v>
+        <v>43680.796258000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>12.133555</v>
+        <v>12.133554999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.782000</v>
+        <v>-364.78199999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>43691.374404</v>
+        <v>43691.374404000002</v>
       </c>
       <c r="BE6" s="1">
         <v>12.136493</v>
       </c>
       <c r="BF6" s="1">
-        <v>1537.190000</v>
+        <v>1537.19</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.601000</v>
+        <v>-613.601</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>43702.418360</v>
+        <v>43702.418360000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.139561</v>
       </c>
       <c r="BK6" s="1">
-        <v>1691.360000</v>
+        <v>1691.36</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1059.680000</v>
+        <v>-1059.68</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>43713.648247</v>
+        <v>43713.648246999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.142680</v>
+        <v>12.14268</v>
       </c>
       <c r="BP6" s="1">
-        <v>1984.980000</v>
+        <v>1984.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1833.400000</v>
+        <v>-1833.4</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>43725.360280</v>
+        <v>43725.360280000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.145933</v>
+        <v>12.145932999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2374.570000</v>
+        <v>2374.5700000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2727.170000</v>
+        <v>-2727.17</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>43736.527207</v>
+        <v>43736.527206999999</v>
       </c>
       <c r="BY6" s="1">
         <v>12.149035</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2854.230000</v>
+        <v>2854.23</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3703.920000</v>
+        <v>-3703.92</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>43747.816187</v>
+        <v>43747.816186999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>12.152171</v>
+        <v>12.152170999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4274.900000</v>
+        <v>4274.8999999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6051.450000</v>
+        <v>-6051.45</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>43576.000988</v>
       </c>
@@ -1766,43 +2182,43 @@
         <v>12.104445</v>
       </c>
       <c r="C7" s="1">
-        <v>1253.360000</v>
+        <v>1253.3599999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-279.476000</v>
+        <v>-279.476</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>43586.221550</v>
+        <v>43586.221550000002</v>
       </c>
       <c r="G7" s="1">
         <v>12.107284</v>
       </c>
       <c r="H7" s="1">
-        <v>1274.040000</v>
+        <v>1274.04</v>
       </c>
       <c r="I7" s="1">
-        <v>-243.666000</v>
+        <v>-243.666</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>43596.601861</v>
+        <v>43596.601861000003</v>
       </c>
       <c r="L7" s="1">
-        <v>12.110167</v>
+        <v>12.110167000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.860000</v>
+        <v>1306.8599999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-191.687000</v>
+        <v>-191.68700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>43607.096179</v>
@@ -1811,285 +2227,285 @@
         <v>12.113082</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.880000</v>
+        <v>1318.88</v>
       </c>
       <c r="S7" s="1">
-        <v>-177.167000</v>
+        <v>-177.167</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>43617.579621</v>
+        <v>43617.579620999997</v>
       </c>
       <c r="V7" s="1">
-        <v>12.115994</v>
+        <v>12.115994000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1332.720000</v>
+        <v>1332.72</v>
       </c>
       <c r="X7" s="1">
-        <v>-166.578000</v>
+        <v>-166.578</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>43628.021431</v>
+        <v>43628.021431000001</v>
       </c>
       <c r="AA7" s="1">
         <v>12.118895</v>
       </c>
       <c r="AB7" s="1">
-        <v>1351.050000</v>
+        <v>1351.05</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.003000</v>
+        <v>-167.00299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>43638.660093</v>
+        <v>43638.660092999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.121850</v>
+        <v>12.12185</v>
       </c>
       <c r="AG7" s="1">
-        <v>1364.620000</v>
+        <v>1364.62</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.598000</v>
+        <v>-177.59800000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>43649.125181</v>
+        <v>43649.125181000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>12.124757</v>
+        <v>12.124757000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1385.880000</v>
+        <v>1385.88</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.215000</v>
+        <v>-208.215</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>43659.687982</v>
+        <v>43659.687982000003</v>
       </c>
       <c r="AP7" s="1">
         <v>12.127691</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1407.860000</v>
+        <v>1407.86</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.378000</v>
+        <v>-252.37799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>43670.351473</v>
+        <v>43670.351473000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>12.130653</v>
+        <v>12.130653000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.584000</v>
+        <v>-312.584</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>43681.157315</v>
+        <v>43681.157314999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.133655</v>
+        <v>12.133654999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1452.010000</v>
+        <v>1452.01</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.765000</v>
+        <v>-364.76499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>43691.734995</v>
+        <v>43691.734994999999</v>
       </c>
       <c r="BE7" s="1">
         <v>12.136593</v>
       </c>
       <c r="BF7" s="1">
-        <v>1537.220000</v>
+        <v>1537.22</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.560000</v>
+        <v>-613.55999999999995</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>43703.183189</v>
+        <v>43703.183189000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.139773</v>
       </c>
       <c r="BK7" s="1">
-        <v>1691.290000</v>
+        <v>1691.29</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1059.790000</v>
+        <v>-1059.79</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>43714.469624</v>
+        <v>43714.469623999998</v>
       </c>
       <c r="BO7" s="1">
         <v>12.142908</v>
       </c>
       <c r="BP7" s="1">
-        <v>1984.910000</v>
+        <v>1984.91</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1833.320000</v>
+        <v>-1833.32</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>43725.772951</v>
+        <v>43725.772950999999</v>
       </c>
       <c r="BT7" s="1">
         <v>12.146048</v>
       </c>
       <c r="BU7" s="1">
-        <v>2374.470000</v>
+        <v>2374.4699999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2727.430000</v>
+        <v>-2727.43</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>43736.950791</v>
+        <v>43736.950791000003</v>
       </c>
       <c r="BY7" s="1">
         <v>12.149153</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2855.250000</v>
+        <v>2855.25</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3703.800000</v>
+        <v>-3703.8</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>43748.336456</v>
+        <v>43748.336455999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>12.152316</v>
+        <v>12.152316000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4263.470000</v>
+        <v>4263.47</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6062.790000</v>
+        <v>-6062.79</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>43576.363595</v>
+        <v>43576.363595000003</v>
       </c>
       <c r="B8" s="1">
         <v>12.104545</v>
       </c>
       <c r="C8" s="1">
-        <v>1253.320000</v>
+        <v>1253.32</v>
       </c>
       <c r="D8" s="1">
-        <v>-279.887000</v>
+        <v>-279.887</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>43586.473518</v>
+        <v>43586.473517999999</v>
       </c>
       <c r="G8" s="1">
-        <v>12.107354</v>
+        <v>12.107354000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1275.000000</v>
+        <v>1275</v>
       </c>
       <c r="I8" s="1">
-        <v>-244.326000</v>
+        <v>-244.32599999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>43596.952001</v>
+        <v>43596.952000999998</v>
       </c>
       <c r="L8" s="1">
-        <v>12.110264</v>
+        <v>12.110264000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1306.670000</v>
+        <v>1306.67</v>
       </c>
       <c r="N8" s="1">
-        <v>-191.941000</v>
+        <v>-191.941</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>43607.444899</v>
+        <v>43607.444899000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.113179</v>
+        <v>12.113179000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.870000</v>
+        <v>1318.87</v>
       </c>
       <c r="S8" s="1">
-        <v>-177.053000</v>
+        <v>-177.053</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>43617.922853</v>
+        <v>43617.922852999996</v>
       </c>
       <c r="V8" s="1">
-        <v>12.116090</v>
+        <v>12.11609</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.870000</v>
+        <v>1332.87</v>
       </c>
       <c r="X8" s="1">
-        <v>-166.640000</v>
+        <v>-166.64</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>43628.444592</v>
@@ -2098,43 +2514,43 @@
         <v>12.119012</v>
       </c>
       <c r="AB8" s="1">
-        <v>1350.710000</v>
+        <v>1350.71</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.008000</v>
+        <v>-167.00800000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>43638.925482</v>
+        <v>43638.925481999999</v>
       </c>
       <c r="AF8" s="1">
         <v>12.121924</v>
       </c>
       <c r="AG8" s="1">
-        <v>1364.620000</v>
+        <v>1364.62</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.612000</v>
+        <v>-177.61199999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>43649.405419</v>
+        <v>43649.405419000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>12.124835</v>
+        <v>12.124834999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1385.910000</v>
+        <v>1385.91</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.215000</v>
+        <v>-208.215</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>43660.048574</v>
@@ -2143,180 +2559,180 @@
         <v>12.127791</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1407.840000</v>
+        <v>1407.84</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.366000</v>
+        <v>-252.36600000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>43670.719007</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.130755</v>
+        <v>12.130755000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.610000</v>
+        <v>1432.61</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.563000</v>
+        <v>-312.56299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>43681.516417</v>
+        <v>43681.516416999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.133755</v>
+        <v>12.133755000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.781000</v>
+        <v>-364.78100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>43692.456179</v>
+        <v>43692.456179000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>12.136793</v>
+        <v>12.136793000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1537.210000</v>
+        <v>1537.21</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.559000</v>
+        <v>-613.55899999999997</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>43703.559649</v>
+        <v>43703.559649000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.139878</v>
       </c>
       <c r="BK8" s="1">
-        <v>1691.200000</v>
+        <v>1691.2</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1059.630000</v>
+        <v>-1059.6300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>43714.887748</v>
+        <v>43714.887748000001</v>
       </c>
       <c r="BO8" s="1">
         <v>12.143024</v>
       </c>
       <c r="BP8" s="1">
-        <v>1985.040000</v>
+        <v>1985.04</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1833.330000</v>
+        <v>-1833.33</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>43726.202495</v>
+        <v>43726.202494999998</v>
       </c>
       <c r="BT8" s="1">
         <v>12.146167</v>
       </c>
       <c r="BU8" s="1">
-        <v>2374.280000</v>
+        <v>2374.2800000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2728.100000</v>
+        <v>-2728.1</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>43737.692310</v>
+        <v>43737.692309999999</v>
       </c>
       <c r="BY8" s="1">
         <v>12.149359</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2854.750000</v>
+        <v>2854.75</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3703.590000</v>
+        <v>-3703.59</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>43749.212392</v>
+        <v>43749.212392000001</v>
       </c>
       <c r="CD8" s="1">
         <v>12.152559</v>
       </c>
       <c r="CE8" s="1">
-        <v>4276.320000</v>
+        <v>4276.32</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6074.880000</v>
+        <v>-6074.88</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>43576.710763</v>
+        <v>43576.710763000003</v>
       </c>
       <c r="B9" s="1">
         <v>12.104642</v>
       </c>
       <c r="C9" s="1">
-        <v>1253.220000</v>
+        <v>1253.22</v>
       </c>
       <c r="D9" s="1">
-        <v>-279.783000</v>
+        <v>-279.78300000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>43586.824190</v>
+        <v>43586.824189999999</v>
       </c>
       <c r="G9" s="1">
-        <v>12.107451</v>
+        <v>12.107450999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1274.070000</v>
+        <v>1274.07</v>
       </c>
       <c r="I9" s="1">
-        <v>-243.716000</v>
+        <v>-243.71600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>43597.299200</v>
+        <v>43597.299200000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.110361</v>
+        <v>12.110360999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.010000</v>
+        <v>1307.01</v>
       </c>
       <c r="N9" s="1">
-        <v>-191.805000</v>
+        <v>-191.80500000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>43607.866963</v>
@@ -2325,13 +2741,13 @@
         <v>12.113296</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.930000</v>
+        <v>1318.93</v>
       </c>
       <c r="S9" s="1">
-        <v>-177.166000</v>
+        <v>-177.166</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>43618.342999</v>
@@ -2340,73 +2756,73 @@
         <v>12.116206</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.710000</v>
+        <v>1332.71</v>
       </c>
       <c r="X9" s="1">
-        <v>-166.609000</v>
+        <v>-166.60900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>43628.721760</v>
+        <v>43628.72176</v>
       </c>
       <c r="AA9" s="1">
-        <v>12.119089</v>
+        <v>12.119089000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1350.990000</v>
+        <v>1350.99</v>
       </c>
       <c r="AC9" s="1">
-        <v>-166.921000</v>
+        <v>-166.92099999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>43639.271162</v>
+        <v>43639.271161999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.122020</v>
+        <v>12.122019999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1364.660000</v>
+        <v>1364.66</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.726000</v>
+        <v>-177.726</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>43649.755099</v>
+        <v>43649.755099000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.124932</v>
+        <v>12.124931999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1385.910000</v>
+        <v>1385.91</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.164000</v>
+        <v>-208.16399999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>43660.410158</v>
+        <v>43660.410157999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.127892</v>
+        <v>12.127891999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1407.920000</v>
+        <v>1407.92</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.419000</v>
+        <v>-252.41900000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>43671.445151</v>
@@ -2415,195 +2831,195 @@
         <v>12.130957</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.590000</v>
+        <v>1432.59</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.542000</v>
+        <v>-312.54199999999997</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>43682.231184</v>
+        <v>43682.231183999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>12.133953</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.920000</v>
+        <v>1451.92</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.750000</v>
+        <v>-364.75</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>43692.817266</v>
+        <v>43692.817265999998</v>
       </c>
       <c r="BE9" s="1">
         <v>12.136894</v>
       </c>
       <c r="BF9" s="1">
-        <v>1537.240000</v>
+        <v>1537.24</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.544000</v>
+        <v>-613.54399999999998</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>43703.937678</v>
+        <v>43703.937678000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.139983</v>
+        <v>12.139983000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1691.380000</v>
+        <v>1691.38</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1059.620000</v>
+        <v>-1059.6199999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>43715.284053</v>
+        <v>43715.284053000003</v>
       </c>
       <c r="BO9" s="1">
         <v>12.143134</v>
       </c>
       <c r="BP9" s="1">
-        <v>1985.030000</v>
+        <v>1985.03</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1833.370000</v>
+        <v>-1833.37</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>43726.946015</v>
+        <v>43726.946015000001</v>
       </c>
       <c r="BT9" s="1">
         <v>12.146374</v>
       </c>
       <c r="BU9" s="1">
-        <v>2373.470000</v>
+        <v>2373.4699999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2728.510000</v>
+        <v>-2728.51</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>43737.819782</v>
+        <v>43737.819781999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.149394</v>
+        <v>12.149393999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2854.140000</v>
+        <v>2854.14</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3703.650000</v>
+        <v>-3703.65</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>43749.373591</v>
+        <v>43749.373591000003</v>
       </c>
       <c r="CD9" s="1">
         <v>12.152604</v>
       </c>
       <c r="CE9" s="1">
-        <v>4287.730000</v>
+        <v>4287.7299999999996</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6061.250000</v>
+        <v>-6061.25</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>43577.052047</v>
+        <v>43577.052046999997</v>
       </c>
       <c r="B10" s="1">
         <v>12.104737</v>
       </c>
       <c r="C10" s="1">
-        <v>1253.060000</v>
+        <v>1253.06</v>
       </c>
       <c r="D10" s="1">
-        <v>-279.592000</v>
+        <v>-279.59199999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>43587.241325</v>
+        <v>43587.241325000003</v>
       </c>
       <c r="G10" s="1">
         <v>12.107567</v>
       </c>
       <c r="H10" s="1">
-        <v>1274.420000</v>
+        <v>1274.42</v>
       </c>
       <c r="I10" s="1">
-        <v>-243.554000</v>
+        <v>-243.554</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>43597.726751</v>
+        <v>43597.726751000002</v>
       </c>
       <c r="L10" s="1">
-        <v>12.110480</v>
+        <v>12.110480000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.950000</v>
+        <v>1306.95</v>
       </c>
       <c r="N10" s="1">
-        <v>-192.080000</v>
+        <v>-192.08</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>43608.143233</v>
+        <v>43608.143233000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>12.113373</v>
+        <v>12.113372999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.940000</v>
+        <v>1318.94</v>
       </c>
       <c r="S10" s="1">
-        <v>-177.205000</v>
+        <v>-177.20500000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>43618.637599</v>
+        <v>43618.637599000002</v>
       </c>
       <c r="V10" s="1">
-        <v>12.116288</v>
+        <v>12.116288000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.720000</v>
+        <v>1332.72</v>
       </c>
       <c r="X10" s="1">
-        <v>-166.602000</v>
+        <v>-166.602</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>43629.074902</v>
@@ -2612,270 +3028,270 @@
         <v>12.119187</v>
       </c>
       <c r="AB10" s="1">
-        <v>1351.060000</v>
+        <v>1351.06</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.030000</v>
+        <v>-167.03</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>43639.613895</v>
+        <v>43639.613895000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>12.122115</v>
+        <v>12.122115000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1364.590000</v>
+        <v>1364.59</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.634000</v>
+        <v>-177.63399999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>43650.092559</v>
+        <v>43650.092558999997</v>
       </c>
       <c r="AK10" s="1">
         <v>12.125026</v>
       </c>
       <c r="AL10" s="1">
-        <v>1385.880000</v>
+        <v>1385.88</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.239000</v>
+        <v>-208.239</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>43661.128860</v>
+        <v>43661.128859999997</v>
       </c>
       <c r="AP10" s="1">
         <v>12.128091</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1407.880000</v>
+        <v>1407.88</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.381000</v>
+        <v>-252.381</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>43671.835005</v>
+        <v>43671.835005000001</v>
       </c>
       <c r="AU10" s="1">
         <v>12.131065</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.620000</v>
+        <v>1432.62</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.553000</v>
+        <v>-312.553</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>43682.589761</v>
+        <v>43682.589761000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>12.134053</v>
       </c>
       <c r="BA10" s="1">
-        <v>1452.000000</v>
+        <v>1452</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.758000</v>
+        <v>-364.75799999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>43693.178354</v>
+        <v>43693.178354000003</v>
       </c>
       <c r="BE10" s="1">
         <v>12.136994</v>
       </c>
       <c r="BF10" s="1">
-        <v>1537.210000</v>
+        <v>1537.21</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.545000</v>
+        <v>-613.54499999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>43704.648835</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.140180</v>
+        <v>12.140180000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1691.210000</v>
+        <v>1691.21</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1059.810000</v>
+        <v>-1059.81</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>43716.020116</v>
       </c>
       <c r="BO10" s="1">
-        <v>12.143339</v>
+        <v>12.143338999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1984.910000</v>
+        <v>1984.91</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1833.200000</v>
+        <v>-1833.2</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>43727.077430</v>
+        <v>43727.077429999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.146410</v>
+        <v>12.146409999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2373.580000</v>
+        <v>2373.58</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2729.070000</v>
+        <v>-2729.07</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>43738.236423</v>
+        <v>43738.236423000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.149510</v>
+        <v>12.149509999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.880000</v>
+        <v>2853.88</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3704.220000</v>
+        <v>-3704.22</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>43749.890422</v>
+        <v>43749.890421999997</v>
       </c>
       <c r="CD10" s="1">
         <v>12.152747</v>
       </c>
       <c r="CE10" s="1">
-        <v>4273.190000</v>
+        <v>4273.1899999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6051.310000</v>
+        <v>-6051.31</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>43577.488031</v>
+        <v>43577.488031000001</v>
       </c>
       <c r="B11" s="1">
         <v>12.104858</v>
       </c>
       <c r="C11" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-279.733000</v>
+        <v>-279.733</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>43587.516607</v>
+        <v>43587.516606999998</v>
       </c>
       <c r="G11" s="1">
-        <v>12.107644</v>
+        <v>12.107644000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1274.920000</v>
+        <v>1274.92</v>
       </c>
       <c r="I11" s="1">
-        <v>-243.856000</v>
+        <v>-243.85599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>43597.999087</v>
+        <v>43597.999086999997</v>
       </c>
       <c r="L11" s="1">
         <v>12.110555</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.030000</v>
+        <v>1307.03</v>
       </c>
       <c r="N11" s="1">
-        <v>-191.911000</v>
+        <v>-191.911</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>43608.492418</v>
+        <v>43608.492418000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.113470</v>
+        <v>12.11347</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.970000</v>
+        <v>1318.97</v>
       </c>
       <c r="S11" s="1">
-        <v>-177.199000</v>
+        <v>-177.19900000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>43618.981353</v>
+        <v>43618.981353000003</v>
       </c>
       <c r="V11" s="1">
         <v>12.116384</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.450000</v>
+        <v>1332.45</v>
       </c>
       <c r="X11" s="1">
-        <v>-166.634000</v>
+        <v>-166.63399999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>43629.420615</v>
+        <v>43629.420615000003</v>
       </c>
       <c r="AA11" s="1">
         <v>12.119284</v>
       </c>
       <c r="AB11" s="1">
-        <v>1351.070000</v>
+        <v>1351.07</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.008000</v>
+        <v>-167.00800000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>43640.299863</v>
@@ -2884,709 +3300,709 @@
         <v>12.122306</v>
       </c>
       <c r="AG11" s="1">
-        <v>1364.700000</v>
+        <v>1364.7</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.659000</v>
+        <v>-177.65899999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>43650.800171</v>
+        <v>43650.800171000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>12.125222</v>
+        <v>12.125222000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1385.880000</v>
+        <v>1385.88</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.234000</v>
+        <v>-208.23400000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>43661.488486</v>
+        <v>43661.488486000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>12.128191</v>
+        <v>12.128190999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1407.890000</v>
+        <v>1407.89</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.409000</v>
+        <v>-252.40899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>43672.202046</v>
+        <v>43672.202045999999</v>
       </c>
       <c r="AU11" s="1">
         <v>12.131167</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.570000</v>
+        <v>1432.57</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.561000</v>
+        <v>-312.56099999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>43682.954319</v>
+        <v>43682.954318999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>12.134154</v>
+        <v>12.134154000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.824000</v>
+        <v>-364.82400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>43693.846961</v>
+        <v>43693.846961000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>12.137180</v>
+        <v>12.137180000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1537.220000</v>
+        <v>1537.22</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.545000</v>
+        <v>-613.54499999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>43705.085315</v>
+        <v>43705.085314999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.140301</v>
+        <v>12.140300999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1691.300000</v>
+        <v>1691.3</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1059.620000</v>
+        <v>-1059.6199999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>43716.532482</v>
+        <v>43716.532482000002</v>
       </c>
       <c r="BO11" s="1">
         <v>12.143481</v>
       </c>
       <c r="BP11" s="1">
-        <v>1985.050000</v>
+        <v>1985.05</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1833.300000</v>
+        <v>-1833.3</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>43727.490597</v>
+        <v>43727.490597000004</v>
       </c>
       <c r="BT11" s="1">
         <v>12.146525</v>
       </c>
       <c r="BU11" s="1">
-        <v>2373.190000</v>
+        <v>2373.19</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2729.240000</v>
+        <v>-2729.24</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>43738.663510</v>
+        <v>43738.663509999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.149629</v>
+        <v>12.149628999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2854.480000</v>
+        <v>2854.48</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3704.510000</v>
+        <v>-3704.51</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>43750.408741</v>
+        <v>43750.408740999999</v>
       </c>
       <c r="CD11" s="1">
         <v>12.152891</v>
       </c>
       <c r="CE11" s="1">
-        <v>4265.840000</v>
+        <v>4265.84</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6066.030000</v>
+        <v>-6066.03</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>43577.754880</v>
+        <v>43577.75488</v>
       </c>
       <c r="B12" s="1">
         <v>12.104932</v>
       </c>
       <c r="C12" s="1">
-        <v>1253.270000</v>
+        <v>1253.27</v>
       </c>
       <c r="D12" s="1">
-        <v>-279.772000</v>
+        <v>-279.77199999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>43587.862317</v>
+        <v>43587.862316999999</v>
       </c>
       <c r="G12" s="1">
-        <v>12.107740</v>
+        <v>12.10774</v>
       </c>
       <c r="H12" s="1">
-        <v>1274.090000</v>
+        <v>1274.0899999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-242.943000</v>
+        <v>-242.94300000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>43598.345263</v>
+        <v>43598.345263000003</v>
       </c>
       <c r="L12" s="1">
-        <v>12.110651</v>
+        <v>12.110651000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.070000</v>
+        <v>1307.07</v>
       </c>
       <c r="N12" s="1">
-        <v>-191.792000</v>
+        <v>-191.792</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>43608.844082</v>
+        <v>43608.844082000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.113568</v>
+        <v>12.113568000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.810000</v>
+        <v>1318.81</v>
       </c>
       <c r="S12" s="1">
-        <v>-177.264000</v>
+        <v>-177.26400000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>43619.665829</v>
+        <v>43619.665828999998</v>
       </c>
       <c r="V12" s="1">
         <v>12.116574</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.560000</v>
+        <v>1332.56</v>
       </c>
       <c r="X12" s="1">
-        <v>-166.473000</v>
+        <v>-166.47300000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>43630.117493</v>
+        <v>43630.117492999998</v>
       </c>
       <c r="AA12" s="1">
         <v>12.119477</v>
       </c>
       <c r="AB12" s="1">
-        <v>1351.060000</v>
+        <v>1351.06</v>
       </c>
       <c r="AC12" s="1">
-        <v>-166.913000</v>
+        <v>-166.91300000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>43640.643423</v>
+        <v>43640.643423000001</v>
       </c>
       <c r="AF12" s="1">
         <v>12.122401</v>
       </c>
       <c r="AG12" s="1">
-        <v>1364.670000</v>
+        <v>1364.67</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.625000</v>
+        <v>-177.625</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>43651.148858</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.125319</v>
+        <v>12.125318999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1385.890000</v>
+        <v>1385.89</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.205000</v>
+        <v>-208.20500000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>43661.846075</v>
+        <v>43661.846075000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.128291</v>
+        <v>12.128291000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1407.850000</v>
+        <v>1407.85</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.384000</v>
+        <v>-252.38399999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>43672.882556</v>
+        <v>43672.882555999997</v>
       </c>
       <c r="AU12" s="1">
         <v>12.131356</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.590000</v>
+        <v>1432.59</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.554000</v>
+        <v>-312.55399999999997</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>43683.657182</v>
+        <v>43683.657182000003</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.134349</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.779000</v>
+        <v>-364.779</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>43694.296368</v>
+        <v>43694.296368000003</v>
       </c>
       <c r="BE12" s="1">
         <v>12.137305</v>
       </c>
       <c r="BF12" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.563000</v>
+        <v>-613.56299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>43705.488595</v>
+        <v>43705.488595000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>12.140413</v>
+        <v>12.140413000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1691.350000</v>
+        <v>1691.35</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1059.760000</v>
+        <v>-1059.76</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>43716.941187</v>
+        <v>43716.941186999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.143595</v>
+        <v>12.143594999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1984.970000</v>
+        <v>1984.97</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1833.220000</v>
+        <v>-1833.22</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>43727.915171</v>
+        <v>43727.915171000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>12.146643</v>
+        <v>12.146642999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2372.530000</v>
+        <v>2372.5300000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2729.530000</v>
+        <v>-2729.53</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>43739.083590</v>
+        <v>43739.083590000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.149745</v>
+        <v>12.149744999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2855.170000</v>
+        <v>2855.17</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3703.280000</v>
+        <v>-3703.28</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>43750.926566</v>
+        <v>43750.926566000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.153035</v>
+        <v>12.153034999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4265.120000</v>
+        <v>4265.12</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6064.520000</v>
+        <v>-6064.52</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>43578.096089</v>
+        <v>43578.096088999999</v>
       </c>
       <c r="B13" s="1">
         <v>12.105027</v>
       </c>
       <c r="C13" s="1">
-        <v>1253.290000</v>
+        <v>1253.29</v>
       </c>
       <c r="D13" s="1">
-        <v>-279.906000</v>
+        <v>-279.90600000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>43588.205580</v>
+        <v>43588.205580000002</v>
       </c>
       <c r="G13" s="1">
         <v>12.107835</v>
       </c>
       <c r="H13" s="1">
-        <v>1274.080000</v>
+        <v>1274.08</v>
       </c>
       <c r="I13" s="1">
-        <v>-244.619000</v>
+        <v>-244.619</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>43598.691009</v>
+        <v>43598.691009000002</v>
       </c>
       <c r="L13" s="1">
-        <v>12.110748</v>
+        <v>12.110747999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1306.910000</v>
+        <v>1306.9100000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-191.931000</v>
+        <v>-191.93100000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>43609.537488</v>
+        <v>43609.537488000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.113760</v>
+        <v>12.113759999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.820000</v>
+        <v>1318.82</v>
       </c>
       <c r="S13" s="1">
-        <v>-177.184000</v>
+        <v>-177.184</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>43620.007538</v>
+        <v>43620.007537999998</v>
       </c>
       <c r="V13" s="1">
         <v>12.116669</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.720000</v>
+        <v>1332.72</v>
       </c>
       <c r="X13" s="1">
-        <v>-166.675000</v>
+        <v>-166.67500000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>43630.467174</v>
+        <v>43630.467173999998</v>
       </c>
       <c r="AA13" s="1">
         <v>12.119574</v>
       </c>
       <c r="AB13" s="1">
-        <v>1351.120000</v>
+        <v>1351.12</v>
       </c>
       <c r="AC13" s="1">
-        <v>-166.752000</v>
+        <v>-166.75200000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>43640.985831</v>
+        <v>43640.985830999998</v>
       </c>
       <c r="AF13" s="1">
         <v>12.122496</v>
       </c>
       <c r="AG13" s="1">
-        <v>1364.690000</v>
+        <v>1364.69</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.607000</v>
+        <v>-177.607</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>43651.805592</v>
+        <v>43651.805591999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>12.125502</v>
+        <v>12.125501999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1385.900000</v>
+        <v>1385.9</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.221000</v>
+        <v>-208.221</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>43662.523610</v>
+        <v>43662.523609999997</v>
       </c>
       <c r="AP13" s="1">
         <v>12.128479</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1407.850000</v>
+        <v>1407.85</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.355000</v>
+        <v>-252.35499999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>43673.332924</v>
+        <v>43673.332924000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.131481</v>
+        <v>12.131481000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1432.550000</v>
+        <v>1432.55</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.559000</v>
+        <v>-312.55900000000003</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>43684.046051</v>
+        <v>43684.046050999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.134457</v>
+        <v>12.134456999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.776000</v>
+        <v>-364.77600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>43694.658416</v>
+        <v>43694.658415999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.137405</v>
+        <v>12.137404999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1537.200000</v>
+        <v>1537.2</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.547000</v>
+        <v>-613.54700000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>43705.863040</v>
+        <v>43705.863039999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>12.140518</v>
       </c>
       <c r="BK13" s="1">
-        <v>1691.080000</v>
+        <v>1691.08</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1059.630000</v>
+        <v>-1059.6300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>43717.368764</v>
+        <v>43717.368763999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.143714</v>
+        <v>12.143713999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1984.760000</v>
+        <v>1984.76</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1833.190000</v>
+        <v>-1833.19</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>43728.334789</v>
       </c>
       <c r="BT13" s="1">
-        <v>12.146760</v>
+        <v>12.14676</v>
       </c>
       <c r="BU13" s="1">
-        <v>2371.960000</v>
+        <v>2371.96</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2729.750000</v>
+        <v>-2729.75</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>43739.527508</v>
+        <v>43739.527507999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.149869</v>
+        <v>12.149869000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2854.240000</v>
+        <v>2854.24</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3703.060000</v>
+        <v>-3703.06</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>43751.474644</v>
+        <v>43751.474644000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>12.153187</v>
+        <v>12.153187000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4271.040000</v>
+        <v>4271.04</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6049.340000</v>
+        <v>-6049.34</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>43578.436346</v>
+        <v>43578.436346000002</v>
       </c>
       <c r="B14" s="1">
         <v>12.105121</v>
       </c>
       <c r="C14" s="1">
-        <v>1253.410000</v>
+        <v>1253.4100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-279.904000</v>
+        <v>-279.904</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>43588.895484</v>
+        <v>43588.895484000001</v>
       </c>
       <c r="G14" s="1">
         <v>12.108027</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.910000</v>
+        <v>1273.9100000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-243.249000</v>
+        <v>-243.249</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>43599.387359</v>
@@ -3595,647 +4011,647 @@
         <v>12.110941</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.920000</v>
+        <v>1306.92</v>
       </c>
       <c r="N14" s="1">
-        <v>-192.220000</v>
+        <v>-192.22</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>43609.884687</v>
+        <v>43609.884686999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>12.113857</v>
+        <v>12.113856999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.890000</v>
+        <v>1318.89</v>
       </c>
       <c r="S14" s="1">
-        <v>-177.165000</v>
+        <v>-177.16499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>43620.351761</v>
+        <v>43620.351760999998</v>
       </c>
       <c r="V14" s="1">
         <v>12.116764</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.930000</v>
+        <v>1332.93</v>
       </c>
       <c r="X14" s="1">
-        <v>-166.479000</v>
+        <v>-166.47900000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>43630.815861</v>
+        <v>43630.815861000003</v>
       </c>
       <c r="AA14" s="1">
         <v>12.119671</v>
       </c>
       <c r="AB14" s="1">
-        <v>1351.180000</v>
+        <v>1351.18</v>
       </c>
       <c r="AC14" s="1">
-        <v>-166.913000</v>
+        <v>-166.91300000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>43641.631621</v>
       </c>
       <c r="AF14" s="1">
-        <v>12.122675</v>
+        <v>12.122674999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1364.600000</v>
+        <v>1364.6</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.619000</v>
+        <v>-177.619</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>43652.192275</v>
+        <v>43652.192275000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.125609</v>
+        <v>12.125609000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1385.890000</v>
+        <v>1385.89</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.203000</v>
+        <v>-208.203</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>43662.961578</v>
+        <v>43662.961578000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>12.128600</v>
+        <v>12.1286</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1407.860000</v>
+        <v>1407.86</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.375000</v>
+        <v>-252.375</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>43673.695003</v>
+        <v>43673.695003000001</v>
       </c>
       <c r="AU14" s="1">
         <v>12.131582</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.580000</v>
+        <v>1432.58</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.540000</v>
+        <v>-312.54000000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>43684.428430</v>
+        <v>43684.42843</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.134563</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.779000</v>
+        <v>-364.779</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>43695.018015</v>
+        <v>43695.018015000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.137505</v>
+        <v>12.137505000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1537.190000</v>
+        <v>1537.19</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.526000</v>
+        <v>-613.52599999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>43706.298571</v>
+        <v>43706.298570999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>12.140638</v>
+        <v>12.140637999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1691.200000</v>
+        <v>1691.2</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1059.830000</v>
+        <v>-1059.83</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>43717.758098</v>
+        <v>43717.758097999998</v>
       </c>
       <c r="BO14" s="1">
         <v>12.143822</v>
       </c>
       <c r="BP14" s="1">
-        <v>1984.860000</v>
+        <v>1984.86</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1833.220000</v>
+        <v>-1833.22</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>43728.744018</v>
+        <v>43728.744017999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>12.146873</v>
+        <v>12.146872999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2371.460000</v>
+        <v>2371.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2729.430000</v>
+        <v>-2729.43</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>43739.949603</v>
+        <v>43739.949603000001</v>
       </c>
       <c r="BY14" s="1">
         <v>12.149986</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2854.530000</v>
+        <v>2854.53</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3704.210000</v>
+        <v>-3704.21</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>43752.008835</v>
+        <v>43752.008835000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>12.153336</v>
+        <v>12.153335999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4264.670000</v>
+        <v>4264.67</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6065.780000</v>
+        <v>-6065.78</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>43579.118389</v>
+        <v>43579.118389000003</v>
       </c>
       <c r="B15" s="1">
         <v>12.105311</v>
       </c>
       <c r="C15" s="1">
-        <v>1253.190000</v>
+        <v>1253.19</v>
       </c>
       <c r="D15" s="1">
-        <v>-279.820000</v>
+        <v>-279.82</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>43589.239244</v>
+        <v>43589.239243999997</v>
       </c>
       <c r="G15" s="1">
         <v>12.108122</v>
       </c>
       <c r="H15" s="1">
-        <v>1275.500000</v>
+        <v>1275.5</v>
       </c>
       <c r="I15" s="1">
-        <v>-243.542000</v>
+        <v>-243.542</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>43599.737566</v>
+        <v>43599.737566000003</v>
       </c>
       <c r="L15" s="1">
-        <v>12.111038</v>
+        <v>12.111038000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.130000</v>
+        <v>1307.1300000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-192.131000</v>
+        <v>-192.131</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>43610.237873</v>
+        <v>43610.237872999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>12.113955</v>
+        <v>12.113955000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.890000</v>
+        <v>1318.89</v>
       </c>
       <c r="S15" s="1">
-        <v>-177.180000</v>
+        <v>-177.18</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>43621.014418</v>
+        <v>43621.014417999999</v>
       </c>
       <c r="V15" s="1">
-        <v>12.116948</v>
+        <v>12.116948000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.630000</v>
+        <v>1332.63</v>
       </c>
       <c r="X15" s="1">
-        <v>-166.753000</v>
+        <v>-166.75299999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>43631.476570</v>
+        <v>43631.476569999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.119855</v>
+        <v>12.119854999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1351.020000</v>
+        <v>1351.02</v>
       </c>
       <c r="AC15" s="1">
-        <v>-166.949000</v>
+        <v>-166.94900000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>43642.016549</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.122782</v>
+        <v>12.122782000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1364.620000</v>
+        <v>1364.62</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.612000</v>
+        <v>-177.61199999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>43652.537686</v>
+        <v>43652.537686000003</v>
       </c>
       <c r="AK15" s="1">
         <v>12.125705</v>
       </c>
       <c r="AL15" s="1">
-        <v>1385.880000</v>
+        <v>1385.88</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.233000</v>
+        <v>-208.233</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>43663.321705</v>
+        <v>43663.321705000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.128700</v>
+        <v>12.1287</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1407.860000</v>
+        <v>1407.86</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.307000</v>
+        <v>-252.30699999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>43674.061085</v>
+        <v>43674.061085000001</v>
       </c>
       <c r="AU15" s="1">
         <v>12.131684</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.580000</v>
+        <v>1432.58</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.555000</v>
+        <v>-312.55500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>43684.853500</v>
+        <v>43684.853499999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.134682</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.788000</v>
+        <v>-364.78800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>43695.437632</v>
+        <v>43695.437632000001</v>
       </c>
       <c r="BE15" s="1">
         <v>12.137622</v>
       </c>
       <c r="BF15" s="1">
-        <v>1537.170000</v>
+        <v>1537.17</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.545000</v>
+        <v>-613.54499999999996</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>43706.639311</v>
+        <v>43706.639310999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.140733</v>
+        <v>12.140733000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1691.130000</v>
+        <v>1691.13</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1059.670000</v>
+        <v>-1059.67</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>43718.156880</v>
+        <v>43718.156880000002</v>
       </c>
       <c r="BO15" s="1">
         <v>12.143932</v>
       </c>
       <c r="BP15" s="1">
-        <v>1984.960000</v>
+        <v>1984.96</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1833.120000</v>
+        <v>-1833.12</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>43729.160130</v>
+        <v>43729.160129999997</v>
       </c>
       <c r="BT15" s="1">
         <v>12.146989</v>
       </c>
       <c r="BU15" s="1">
-        <v>2370.740000</v>
+        <v>2370.7399999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2729.710000</v>
+        <v>-2729.71</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>43740.373188</v>
+        <v>43740.373187999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.150104</v>
+        <v>12.150104000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2854.410000</v>
+        <v>2854.41</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3704.120000</v>
+        <v>-3704.12</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>43752.523715</v>
+        <v>43752.523715000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>12.153479</v>
+        <v>12.153479000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4281.370000</v>
+        <v>4281.37</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6069.530000</v>
+        <v>-6069.53</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>43579.462073</v>
+        <v>43579.462073000002</v>
       </c>
       <c r="B16" s="1">
         <v>12.105406</v>
       </c>
       <c r="C16" s="1">
-        <v>1253.460000</v>
+        <v>1253.46</v>
       </c>
       <c r="D16" s="1">
-        <v>-279.625000</v>
+        <v>-279.625</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>43589.584426</v>
+        <v>43589.584426000001</v>
       </c>
       <c r="G16" s="1">
-        <v>12.108218</v>
+        <v>12.108218000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.050000</v>
+        <v>1274.05</v>
       </c>
       <c r="I16" s="1">
-        <v>-244.109000</v>
+        <v>-244.10900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>43600.080765</v>
+        <v>43600.080764999999</v>
       </c>
       <c r="L16" s="1">
         <v>12.111134</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.930000</v>
+        <v>1306.93</v>
       </c>
       <c r="N16" s="1">
-        <v>-191.764000</v>
+        <v>-191.76400000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>43610.893550</v>
+        <v>43610.893550000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>12.114137</v>
+        <v>12.114136999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.900000</v>
+        <v>1318.9</v>
       </c>
       <c r="S16" s="1">
-        <v>-177.292000</v>
+        <v>-177.292</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>43621.383937</v>
+        <v>43621.383936999999</v>
       </c>
       <c r="V16" s="1">
         <v>12.117051</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.620000</v>
+        <v>1332.62</v>
       </c>
       <c r="X16" s="1">
-        <v>-166.514000</v>
+        <v>-166.51400000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>43631.860930</v>
+        <v>43631.860930000003</v>
       </c>
       <c r="AA16" s="1">
         <v>12.119961</v>
       </c>
       <c r="AB16" s="1">
-        <v>1351.110000</v>
+        <v>1351.11</v>
       </c>
       <c r="AC16" s="1">
-        <v>-166.815000</v>
+        <v>-166.815</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>43642.362229</v>
+        <v>43642.362228999998</v>
       </c>
       <c r="AF16" s="1">
         <v>12.122878</v>
       </c>
       <c r="AG16" s="1">
-        <v>1364.670000</v>
+        <v>1364.67</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.692000</v>
+        <v>-177.69200000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>43652.890824</v>
+        <v>43652.890824000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>12.125803</v>
+        <v>12.125802999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1385.940000</v>
+        <v>1385.94</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.186000</v>
+        <v>-208.18600000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>43663.684777</v>
+        <v>43663.684777000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>12.128801</v>
+        <v>12.128800999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1407.860000</v>
+        <v>1407.86</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.352000</v>
+        <v>-252.352</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>43674.507450</v>
+        <v>43674.507449999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>12.131808</v>
+        <v>12.131807999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1432.590000</v>
+        <v>1432.59</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.535000</v>
+        <v>-312.53500000000003</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>43685.146637</v>
+        <v>43685.146636999998</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.134763</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.746000</v>
+        <v>-364.74599999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>43695.739231</v>
@@ -4244,73 +4660,73 @@
         <v>12.137705</v>
       </c>
       <c r="BF16" s="1">
-        <v>1537.190000</v>
+        <v>1537.19</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.532000</v>
+        <v>-613.53200000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>43707.015745</v>
+        <v>43707.015744999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>12.140838</v>
       </c>
       <c r="BK16" s="1">
-        <v>1691.130000</v>
+        <v>1691.13</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1059.600000</v>
+        <v>-1059.5999999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>43718.576497</v>
+        <v>43718.576497000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.144049</v>
+        <v>12.144049000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1984.790000</v>
+        <v>1984.79</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1833.120000</v>
+        <v>-1833.12</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>43729.572305</v>
+        <v>43729.572305000002</v>
       </c>
       <c r="BT16" s="1">
         <v>12.147103</v>
       </c>
       <c r="BU16" s="1">
-        <v>2370.320000</v>
+        <v>2370.3200000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2728.970000</v>
+        <v>-2728.97</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>43740.820082</v>
+        <v>43740.820081999998</v>
       </c>
       <c r="BY16" s="1">
         <v>12.150228</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2854.030000</v>
+        <v>2854.03</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3703.180000</v>
+        <v>-3703.18</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>43753.040019</v>
@@ -4319,45 +4735,45 @@
         <v>12.153622</v>
       </c>
       <c r="CE16" s="1">
-        <v>4281.760000</v>
+        <v>4281.76</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6052.480000</v>
+        <v>-6052.48</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>43579.804343</v>
+        <v>43579.804343000003</v>
       </c>
       <c r="B17" s="1">
         <v>12.105501</v>
       </c>
       <c r="C17" s="1">
-        <v>1253.420000</v>
+        <v>1253.42</v>
       </c>
       <c r="D17" s="1">
-        <v>-279.557000</v>
+        <v>-279.55700000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>43590.244105</v>
+        <v>43590.244104999998</v>
       </c>
       <c r="G17" s="1">
-        <v>12.108401</v>
+        <v>12.108401000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1274.570000</v>
+        <v>1274.57</v>
       </c>
       <c r="I17" s="1">
-        <v>-243.813000</v>
+        <v>-243.81299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>43600.740973</v>
@@ -4366,58 +4782,58 @@
         <v>12.111317</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.910000</v>
+        <v>1306.9100000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-191.696000</v>
+        <v>-191.696</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>43611.283437</v>
+        <v>43611.283436999998</v>
       </c>
       <c r="Q17" s="1">
         <v>12.114245</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.820000</v>
+        <v>1318.82</v>
       </c>
       <c r="S17" s="1">
-        <v>-177.270000</v>
+        <v>-177.27</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>43621.726212</v>
+        <v>43621.726212000001</v>
       </c>
       <c r="V17" s="1">
         <v>12.117146</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.780000</v>
+        <v>1332.78</v>
       </c>
       <c r="X17" s="1">
-        <v>-166.749000</v>
+        <v>-166.749</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>43632.208130</v>
+        <v>43632.208129999999</v>
       </c>
       <c r="AA17" s="1">
         <v>12.120058</v>
       </c>
       <c r="AB17" s="1">
-        <v>1351.090000</v>
+        <v>1351.09</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.069000</v>
+        <v>-167.06899999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>43642.713892</v>
@@ -4426,617 +4842,617 @@
         <v>12.122976</v>
       </c>
       <c r="AG17" s="1">
-        <v>1364.680000</v>
+        <v>1364.68</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.641000</v>
+        <v>-177.64099999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>43653.317863</v>
+        <v>43653.317862999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.125922</v>
+        <v>12.125921999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1385.880000</v>
+        <v>1385.88</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.205000</v>
+        <v>-208.20500000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>43664.116793</v>
+        <v>43664.116793000001</v>
       </c>
       <c r="AP17" s="1">
         <v>12.128921</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1407.850000</v>
+        <v>1407.85</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.370000</v>
+        <v>-252.37</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>43674.788683</v>
+        <v>43674.788682999999</v>
       </c>
       <c r="AU17" s="1">
         <v>12.131886</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.580000</v>
+        <v>1432.58</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.549000</v>
+        <v>-312.54899999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>43685.507229</v>
+        <v>43685.507229000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>12.134863</v>
+        <v>12.134862999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.782000</v>
+        <v>-364.78199999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>43696.101277</v>
+        <v>43696.101277000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>12.137806</v>
+        <v>12.137805999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1537.220000</v>
+        <v>1537.22</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.544000</v>
+        <v>-613.54399999999998</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>43707.390224</v>
+        <v>43707.390224000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>12.140942</v>
+        <v>12.140942000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1691.260000</v>
+        <v>1691.26</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1059.720000</v>
+        <v>-1059.72</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>43719.403822</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.144279</v>
+        <v>12.144278999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1984.860000</v>
+        <v>1984.86</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1833.110000</v>
+        <v>-1833.11</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>43729.992460</v>
+        <v>43729.992460000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.147220</v>
+        <v>12.147220000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2369.940000</v>
+        <v>2369.94</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2728.830000</v>
+        <v>-2728.83</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>43741.251603</v>
+        <v>43741.251602999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.150348</v>
+        <v>12.150347999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2854.010000</v>
+        <v>2854.01</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3703.810000</v>
+        <v>-3703.81</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>43753.562839</v>
+        <v>43753.562838999998</v>
       </c>
       <c r="CD17" s="1">
         <v>12.153767</v>
       </c>
       <c r="CE17" s="1">
-        <v>4264.830000</v>
+        <v>4264.83</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6063.200000</v>
+        <v>-6063.2</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>43580.474408</v>
+        <v>43580.474408000002</v>
       </c>
       <c r="B18" s="1">
         <v>12.105687</v>
       </c>
       <c r="C18" s="1">
-        <v>1253.300000</v>
+        <v>1253.3</v>
       </c>
       <c r="D18" s="1">
-        <v>-279.764000</v>
+        <v>-279.76400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>43590.616632</v>
+        <v>43590.616631999997</v>
       </c>
       <c r="G18" s="1">
-        <v>12.108505</v>
+        <v>12.108504999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1274.390000</v>
+        <v>1274.3900000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-244.648000</v>
+        <v>-244.648</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>43601.117403</v>
+        <v>43601.117402999997</v>
       </c>
       <c r="L18" s="1">
-        <v>12.111422</v>
+        <v>12.111421999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.950000</v>
+        <v>1306.95</v>
       </c>
       <c r="N18" s="1">
-        <v>-192.210000</v>
+        <v>-192.21</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>43611.632094</v>
+        <v>43611.632094000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>12.114342</v>
+        <v>12.114342000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.840000</v>
+        <v>1318.84</v>
       </c>
       <c r="S18" s="1">
-        <v>-177.213000</v>
+        <v>-177.21299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>43622.068912</v>
+        <v>43622.068912000002</v>
       </c>
       <c r="V18" s="1">
         <v>12.117241</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.540000</v>
+        <v>1332.54</v>
       </c>
       <c r="X18" s="1">
-        <v>-166.733000</v>
+        <v>-166.733</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>43632.560800</v>
+        <v>43632.560799999999</v>
       </c>
       <c r="AA18" s="1">
         <v>12.120156</v>
       </c>
       <c r="AB18" s="1">
-        <v>1350.990000</v>
+        <v>1350.99</v>
       </c>
       <c r="AC18" s="1">
-        <v>-166.967000</v>
+        <v>-166.96700000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>43643.138963</v>
+        <v>43643.138962999998</v>
       </c>
       <c r="AF18" s="1">
         <v>12.123094</v>
       </c>
       <c r="AG18" s="1">
-        <v>1364.680000</v>
+        <v>1364.68</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.562000</v>
+        <v>-177.56200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>43653.586197</v>
+        <v>43653.586196999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.125996</v>
+        <v>12.125996000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1385.910000</v>
+        <v>1385.91</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.211000</v>
+        <v>-208.21100000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>43664.406424</v>
+        <v>43664.406424000001</v>
       </c>
       <c r="AP18" s="1">
         <v>12.129002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1407.870000</v>
+        <v>1407.87</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.384000</v>
+        <v>-252.38399999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>43675.154269</v>
+        <v>43675.154268999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>12.131987</v>
+        <v>12.131987000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.570000</v>
+        <v>1432.57</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.543000</v>
+        <v>-312.54300000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>43685.863851</v>
+        <v>43685.863851000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.134962</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.749000</v>
+        <v>-364.74900000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>43696.461374</v>
+        <v>43696.461373999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>12.137906</v>
+        <v>12.137905999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1537.200000</v>
+        <v>1537.2</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.491000</v>
+        <v>-613.49099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>43708.141166</v>
+        <v>43708.141166000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.141150</v>
+        <v>12.14115</v>
       </c>
       <c r="BK18" s="1">
-        <v>1691.120000</v>
+        <v>1691.12</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1059.630000</v>
+        <v>-1059.6300000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>43719.814509</v>
+        <v>43719.814509000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.144393</v>
+        <v>12.144393000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1984.700000</v>
+        <v>1984.7</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1832.920000</v>
+        <v>-1832.92</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>43730.424463</v>
+        <v>43730.424463000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.147340</v>
+        <v>12.14734</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.340000</v>
+        <v>2369.34</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2728.360000</v>
+        <v>-2728.36</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>43741.677169</v>
+        <v>43741.677169000002</v>
       </c>
       <c r="BY18" s="1">
         <v>12.150466</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2854.030000</v>
+        <v>2854.03</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3703.950000</v>
+        <v>-3703.95</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>43754.419392</v>
+        <v>43754.419392000003</v>
       </c>
       <c r="CD18" s="1">
         <v>12.154005</v>
       </c>
       <c r="CE18" s="1">
-        <v>4275.470000</v>
+        <v>4275.47</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6049.350000</v>
+        <v>-6049.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>43580.835032</v>
+        <v>43580.835032000003</v>
       </c>
       <c r="B19" s="1">
         <v>12.105788</v>
       </c>
       <c r="C19" s="1">
-        <v>1253.430000</v>
+        <v>1253.43</v>
       </c>
       <c r="D19" s="1">
-        <v>-279.559000</v>
+        <v>-279.55900000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>43590.960826</v>
+        <v>43590.960826000002</v>
       </c>
       <c r="G19" s="1">
-        <v>12.108600</v>
+        <v>12.108599999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1274.210000</v>
+        <v>1274.21</v>
       </c>
       <c r="I19" s="1">
-        <v>-243.129000</v>
+        <v>-243.12899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>43601.467578</v>
+        <v>43601.467578000003</v>
       </c>
       <c r="L19" s="1">
-        <v>12.111519</v>
+        <v>12.111518999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.310000</v>
+        <v>1307.31</v>
       </c>
       <c r="N19" s="1">
-        <v>-191.762000</v>
+        <v>-191.762</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>43611.981278</v>
+        <v>43611.981277999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>12.114439</v>
+        <v>12.114439000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.840000</v>
+        <v>1318.84</v>
       </c>
       <c r="S19" s="1">
-        <v>-177.199000</v>
+        <v>-177.19900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>43622.489519</v>
+        <v>43622.489519000002</v>
       </c>
       <c r="V19" s="1">
-        <v>12.117358</v>
+        <v>12.117357999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1332.610000</v>
+        <v>1332.61</v>
       </c>
       <c r="X19" s="1">
-        <v>-166.631000</v>
+        <v>-166.631</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>43632.985401</v>
+        <v>43632.985400999998</v>
       </c>
       <c r="AA19" s="1">
         <v>12.120274</v>
       </c>
       <c r="AB19" s="1">
-        <v>1351.010000</v>
+        <v>1351.01</v>
       </c>
       <c r="AC19" s="1">
-        <v>-166.960000</v>
+        <v>-166.96</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>43643.414740</v>
+        <v>43643.41474</v>
       </c>
       <c r="AF19" s="1">
-        <v>12.123171</v>
+        <v>12.123170999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1364.640000</v>
+        <v>1364.64</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.667000</v>
+        <v>-177.667</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>43653.934425</v>
+        <v>43653.934424999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.126093</v>
+        <v>12.126092999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1385.890000</v>
+        <v>1385.89</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.218000</v>
+        <v>-208.21799999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>43664.768532</v>
+        <v>43664.768532000002</v>
       </c>
       <c r="AP19" s="1">
         <v>12.129102</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1407.900000</v>
+        <v>1407.9</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.374000</v>
+        <v>-252.374</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>43675.519322</v>
       </c>
       <c r="AU19" s="1">
-        <v>12.132089</v>
+        <v>12.132089000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.600000</v>
+        <v>1432.6</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.515000</v>
+        <v>-312.51499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>43686.580602</v>
+        <v>43686.580602000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>12.135161</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.768000</v>
+        <v>-364.76799999999997</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>43697.184079</v>
+        <v>43697.184078999999</v>
       </c>
       <c r="BE19" s="1">
         <v>12.138107</v>
       </c>
       <c r="BF19" s="1">
-        <v>1537.230000</v>
+        <v>1537.23</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.530000</v>
+        <v>-613.53</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>43708.517135</v>
+        <v>43708.517135000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.141255</v>
+        <v>12.141254999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1691.250000</v>
+        <v>1691.25</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1059.510000</v>
+        <v>-1059.51</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>43720.209853</v>
@@ -5045,210 +5461,210 @@
         <v>12.144503</v>
       </c>
       <c r="BP19" s="1">
-        <v>1984.860000</v>
+        <v>1984.86</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1833.200000</v>
+        <v>-1833.2</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>43730.851984</v>
+        <v>43730.851984000001</v>
       </c>
       <c r="BT19" s="1">
         <v>12.147459</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.950000</v>
+        <v>2368.9499999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2727.920000</v>
+        <v>-2727.92</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>43742.409792</v>
+        <v>43742.409791999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.150669</v>
+        <v>12.150669000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2854.670000</v>
+        <v>2854.67</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3703.920000</v>
+        <v>-3703.92</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>43754.637138</v>
+        <v>43754.637137999998</v>
       </c>
       <c r="CD19" s="1">
         <v>12.154066</v>
       </c>
       <c r="CE19" s="1">
-        <v>4280.330000</v>
+        <v>4280.33</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6050.120000</v>
+        <v>-6050.12</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>43581.173305</v>
+        <v>43581.173304999997</v>
       </c>
       <c r="B20" s="1">
         <v>12.105881</v>
       </c>
       <c r="C20" s="1">
-        <v>1253.080000</v>
+        <v>1253.08</v>
       </c>
       <c r="D20" s="1">
-        <v>-279.808000</v>
+        <v>-279.80799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>43591.304553</v>
+        <v>43591.304553000002</v>
       </c>
       <c r="G20" s="1">
         <v>12.108696</v>
       </c>
       <c r="H20" s="1">
-        <v>1274.930000</v>
+        <v>1274.93</v>
       </c>
       <c r="I20" s="1">
-        <v>-244.012000</v>
+        <v>-244.012</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>43601.824202</v>
+        <v>43601.824202000003</v>
       </c>
       <c r="L20" s="1">
         <v>12.111618</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.180000</v>
+        <v>1307.18</v>
       </c>
       <c r="N20" s="1">
-        <v>-191.884000</v>
+        <v>-191.88399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>43612.408828</v>
       </c>
       <c r="Q20" s="1">
-        <v>12.114558</v>
+        <v>12.114558000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.950000</v>
+        <v>1318.95</v>
       </c>
       <c r="S20" s="1">
-        <v>-177.254000</v>
+        <v>-177.25399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>43622.761600</v>
+        <v>43622.761599999998</v>
       </c>
       <c r="V20" s="1">
-        <v>12.117434</v>
+        <v>12.117433999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.650000</v>
+        <v>1332.65</v>
       </c>
       <c r="X20" s="1">
-        <v>-166.795000</v>
+        <v>-166.79499999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>43633.266594</v>
+        <v>43633.266594000001</v>
       </c>
       <c r="AA20" s="1">
         <v>12.120352</v>
       </c>
       <c r="AB20" s="1">
-        <v>1351.160000</v>
+        <v>1351.16</v>
       </c>
       <c r="AC20" s="1">
-        <v>-166.862000</v>
+        <v>-166.86199999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>43643.757474</v>
+        <v>43643.757473999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>12.123266</v>
+        <v>12.123265999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1364.640000</v>
+        <v>1364.64</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.637000</v>
+        <v>-177.637</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>43654.287577</v>
+        <v>43654.287577000003</v>
       </c>
       <c r="AK20" s="1">
         <v>12.126191</v>
       </c>
       <c r="AL20" s="1">
-        <v>1385.890000</v>
+        <v>1385.89</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.207000</v>
+        <v>-208.20699999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>43665.126614</v>
+        <v>43665.126614000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.129202</v>
+        <v>12.129201999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1407.850000</v>
+        <v>1407.85</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.368000</v>
+        <v>-252.36799999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>43676.246921</v>
+        <v>43676.246920999998</v>
       </c>
       <c r="AU20" s="1">
         <v>12.132291</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.570000</v>
+        <v>1432.57</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.518000</v>
+        <v>-312.51799999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>43686.938683</v>
@@ -5257,165 +5673,165 @@
         <v>12.135261</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.759000</v>
+        <v>-364.75900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>43697.544667</v>
+        <v>43697.544667000002</v>
       </c>
       <c r="BE20" s="1">
         <v>12.138207</v>
       </c>
       <c r="BF20" s="1">
-        <v>1537.210000</v>
+        <v>1537.21</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.550000</v>
+        <v>-613.54999999999995</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>43708.890164</v>
+        <v>43708.890163999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>12.141358</v>
       </c>
       <c r="BK20" s="1">
-        <v>1691.300000</v>
+        <v>1691.3</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1059.660000</v>
+        <v>-1059.6600000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>43720.944929</v>
+        <v>43720.944928999998</v>
       </c>
       <c r="BO20" s="1">
         <v>12.144707</v>
       </c>
       <c r="BP20" s="1">
-        <v>1984.760000</v>
+        <v>1984.76</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1833.060000</v>
+        <v>-1833.06</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>43731.577168</v>
+        <v>43731.577168000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>12.147660</v>
+        <v>12.14766</v>
       </c>
       <c r="BU20" s="1">
-        <v>2369.000000</v>
+        <v>2369</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2727.390000</v>
+        <v>-2727.39</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>43742.520896</v>
+        <v>43742.520896000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>12.150700</v>
+        <v>12.150700000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2854.590000</v>
+        <v>2854.59</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3703.260000</v>
+        <v>-3703.26</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>43755.159424</v>
+        <v>43755.159423999998</v>
       </c>
       <c r="CD20" s="1">
         <v>12.154211</v>
       </c>
       <c r="CE20" s="1">
-        <v>4264.650000</v>
+        <v>4264.6499999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6057.130000</v>
+        <v>-6057.13</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>43581.514053</v>
+        <v>43581.514052999999</v>
       </c>
       <c r="B21" s="1">
         <v>12.105976</v>
       </c>
       <c r="C21" s="1">
-        <v>1253.180000</v>
+        <v>1253.18</v>
       </c>
       <c r="D21" s="1">
-        <v>-279.538000</v>
+        <v>-279.53800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>43591.735111</v>
+        <v>43591.735111000002</v>
       </c>
       <c r="G21" s="1">
         <v>12.108815</v>
       </c>
       <c r="H21" s="1">
-        <v>1274.150000</v>
+        <v>1274.1500000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-243.181000</v>
+        <v>-243.18100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>43602.312761</v>
+        <v>43602.312761000001</v>
       </c>
       <c r="L21" s="1">
-        <v>12.111754</v>
+        <v>12.111753999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.890000</v>
+        <v>1306.8900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-191.705000</v>
+        <v>-191.70500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>43612.687580</v>
+        <v>43612.687579999998</v>
       </c>
       <c r="Q21" s="1">
         <v>12.114635</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.930000</v>
+        <v>1318.93</v>
       </c>
       <c r="S21" s="1">
-        <v>-177.226000</v>
+        <v>-177.226</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>43623.101099</v>
@@ -5424,330 +5840,330 @@
         <v>12.117528</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.650000</v>
+        <v>1332.65</v>
       </c>
       <c r="X21" s="1">
-        <v>-166.690000</v>
+        <v>-166.69</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>43633.616272</v>
+        <v>43633.616271999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.120449</v>
+        <v>12.120449000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1351.070000</v>
+        <v>1351.07</v>
       </c>
       <c r="AC21" s="1">
-        <v>-166.833000</v>
+        <v>-166.833</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>43644.102195</v>
+        <v>43644.102194999999</v>
       </c>
       <c r="AF21" s="1">
         <v>12.123362</v>
       </c>
       <c r="AG21" s="1">
-        <v>1364.690000</v>
+        <v>1364.69</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.635000</v>
+        <v>-177.63499999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>43654.982963</v>
+        <v>43654.982963000002</v>
       </c>
       <c r="AK21" s="1">
         <v>12.126384</v>
       </c>
       <c r="AL21" s="1">
-        <v>1385.900000</v>
+        <v>1385.9</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.172000</v>
+        <v>-208.172</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>43665.851269</v>
+        <v>43665.851268999999</v>
       </c>
       <c r="AP21" s="1">
         <v>12.129403</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1407.830000</v>
+        <v>1407.83</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.355000</v>
+        <v>-252.35499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>43676.638759</v>
+        <v>43676.638759000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>12.132400</v>
+        <v>12.132400000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.610000</v>
+        <v>1432.61</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.522000</v>
+        <v>-312.52199999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>43687.298777</v>
+        <v>43687.298777000004</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.135361</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.788000</v>
+        <v>-364.78800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>43697.909729</v>
+        <v>43697.909728999999</v>
       </c>
       <c r="BE21" s="1">
         <v>12.138308</v>
       </c>
       <c r="BF21" s="1">
-        <v>1537.180000</v>
+        <v>1537.18</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.534000</v>
+        <v>-613.53399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>43709.594940</v>
+        <v>43709.594940000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.141554</v>
+        <v>12.141553999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1691.110000</v>
+        <v>1691.11</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1059.470000</v>
+        <v>-1059.47</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>43721.061452</v>
+        <v>43721.061452000002</v>
       </c>
       <c r="BO21" s="1">
         <v>12.144739</v>
       </c>
       <c r="BP21" s="1">
-        <v>1984.870000</v>
+        <v>1984.87</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1832.980000</v>
+        <v>-1832.98</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>43731.696207</v>
+        <v>43731.696207000001</v>
       </c>
       <c r="BT21" s="1">
         <v>12.147693</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.830000</v>
+        <v>2368.83</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2726.880000</v>
+        <v>-2726.88</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>43742.970736</v>
+        <v>43742.970736000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>12.150825</v>
+        <v>12.150824999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2854.860000</v>
+        <v>2854.86</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3702.850000</v>
+        <v>-3702.85</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>43755.676783</v>
+        <v>43755.676783000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.154355</v>
+        <v>12.154355000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4273.720000</v>
+        <v>4273.72</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6070.970000</v>
+        <v>-6070.97</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>43581.944548</v>
+        <v>43581.944547999999</v>
       </c>
       <c r="B22" s="1">
-        <v>12.106096</v>
+        <v>12.106096000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1252.930000</v>
+        <v>1252.93</v>
       </c>
       <c r="D22" s="1">
-        <v>-279.736000</v>
+        <v>-279.73599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>43592.003911</v>
       </c>
       <c r="G22" s="1">
-        <v>12.108890</v>
+        <v>12.108890000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1274.490000</v>
+        <v>1274.49</v>
       </c>
       <c r="I22" s="1">
-        <v>-242.903000</v>
+        <v>-242.90299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>43602.505209</v>
+        <v>43602.505209000003</v>
       </c>
       <c r="L22" s="1">
-        <v>12.111807</v>
+        <v>12.111807000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1306.730000</v>
+        <v>1306.73</v>
       </c>
       <c r="N22" s="1">
-        <v>-191.869000</v>
+        <v>-191.869</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>43613.036764</v>
+        <v>43613.036763999997</v>
       </c>
       <c r="Q22" s="1">
         <v>12.114732</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.850000</v>
+        <v>1318.85</v>
       </c>
       <c r="S22" s="1">
-        <v>-177.274000</v>
+        <v>-177.274</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>43623.446834</v>
+        <v>43623.446834000002</v>
       </c>
       <c r="V22" s="1">
-        <v>12.117624</v>
+        <v>12.117623999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.760000</v>
+        <v>1332.76</v>
       </c>
       <c r="X22" s="1">
-        <v>-166.611000</v>
+        <v>-166.61099999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>43633.965455</v>
+        <v>43633.965454999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>12.120546</v>
+        <v>12.120545999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1351.120000</v>
+        <v>1351.12</v>
       </c>
       <c r="AC22" s="1">
-        <v>-166.919000</v>
+        <v>-166.91900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>43644.789682</v>
+        <v>43644.789682000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>12.123553</v>
+        <v>12.123552999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1364.510000</v>
+        <v>1364.51</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.655000</v>
+        <v>-177.655</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>43655.331159</v>
+        <v>43655.331159000001</v>
       </c>
       <c r="AK22" s="1">
         <v>12.126481</v>
       </c>
       <c r="AL22" s="1">
-        <v>1385.890000</v>
+        <v>1385.89</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.193000</v>
+        <v>-208.19300000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>43666.228230</v>
+        <v>43666.228230000001</v>
       </c>
       <c r="AP22" s="1">
         <v>12.129508</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1407.830000</v>
+        <v>1407.83</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.388000</v>
+        <v>-252.38800000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>43677.003847</v>
@@ -5756,180 +6172,180 @@
         <v>12.132501</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.560000</v>
+        <v>1432.56</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.548000</v>
+        <v>-312.548</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>43687.971856</v>
+        <v>43687.971855999996</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.135548</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.793000</v>
+        <v>-364.79300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>43698.578831</v>
+        <v>43698.578830999999</v>
       </c>
       <c r="BE22" s="1">
         <v>12.138494</v>
       </c>
       <c r="BF22" s="1">
-        <v>1537.170000</v>
+        <v>1537.17</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.505000</v>
+        <v>-613.505</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>43710.020011</v>
+        <v>43710.020011000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>12.141672</v>
       </c>
       <c r="BK22" s="1">
-        <v>1691.380000</v>
+        <v>1691.38</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1059.600000</v>
+        <v>-1059.5999999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>43721.450348</v>
+        <v>43721.450347999998</v>
       </c>
       <c r="BO22" s="1">
         <v>12.144847</v>
       </c>
       <c r="BP22" s="1">
-        <v>1984.740000</v>
+        <v>1984.74</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1833.000000</v>
+        <v>-1833</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>43732.137118</v>
+        <v>43732.137117999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>12.147816</v>
+        <v>12.147816000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2368.870000</v>
+        <v>2368.87</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2726.140000</v>
+        <v>-2726.14</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>43743.399280</v>
+        <v>43743.399279999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>12.150944</v>
+        <v>12.150944000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2853.910000</v>
+        <v>2853.91</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3703.440000</v>
+        <v>-3703.44</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>43756.196064</v>
+        <v>43756.196064000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>12.154499</v>
+        <v>12.154498999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4286.480000</v>
+        <v>4286.4799999999996</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6058.650000</v>
+        <v>-6058.65</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>43582.216356</v>
+        <v>43582.216355999997</v>
       </c>
       <c r="B23" s="1">
         <v>12.106171</v>
       </c>
       <c r="C23" s="1">
-        <v>1253.270000</v>
+        <v>1253.27</v>
       </c>
       <c r="D23" s="1">
-        <v>-279.583000</v>
+        <v>-279.58300000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>43592.349655</v>
+        <v>43592.349654999998</v>
       </c>
       <c r="G23" s="1">
         <v>12.108986</v>
       </c>
       <c r="H23" s="1">
-        <v>1275.180000</v>
+        <v>1275.18</v>
       </c>
       <c r="I23" s="1">
-        <v>-243.489000</v>
+        <v>-243.489</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>43602.848440</v>
+        <v>43602.848440000002</v>
       </c>
       <c r="L23" s="1">
-        <v>12.111902</v>
+        <v>12.111902000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.870000</v>
+        <v>1306.8699999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-191.784000</v>
+        <v>-191.78399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>43613.384459</v>
+        <v>43613.384459000001</v>
       </c>
       <c r="Q23" s="1">
         <v>12.114829</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.800000</v>
+        <v>1318.8</v>
       </c>
       <c r="S23" s="1">
-        <v>-177.243000</v>
+        <v>-177.24299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>43624.134285</v>
@@ -5938,300 +6354,300 @@
         <v>12.117815</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.780000</v>
+        <v>1332.78</v>
       </c>
       <c r="X23" s="1">
-        <v>-166.841000</v>
+        <v>-166.84100000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>43634.661380</v>
+        <v>43634.661379999998</v>
       </c>
       <c r="AA23" s="1">
         <v>12.120739</v>
       </c>
       <c r="AB23" s="1">
-        <v>1351.110000</v>
+        <v>1351.11</v>
       </c>
       <c r="AC23" s="1">
-        <v>-166.865000</v>
+        <v>-166.86500000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>43645.132882</v>
+        <v>43645.132881999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.123648</v>
+        <v>12.123647999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1364.620000</v>
+        <v>1364.62</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.660000</v>
+        <v>-177.66</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>43655.679844</v>
+        <v>43655.679843999998</v>
       </c>
       <c r="AK23" s="1">
         <v>12.126578</v>
       </c>
       <c r="AL23" s="1">
-        <v>1385.900000</v>
+        <v>1385.9</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.204000</v>
+        <v>-208.20400000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>43666.590308</v>
+        <v>43666.590307999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>12.129608</v>
+        <v>12.129607999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1407.860000</v>
+        <v>1407.86</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.375000</v>
+        <v>-252.375</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>43677.679366</v>
+        <v>43677.679365999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>12.132689</v>
+        <v>12.132688999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.560000</v>
+        <v>1432.56</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.516000</v>
+        <v>-312.51600000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>43688.375095</v>
+        <v>43688.375095000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>12.135660</v>
+        <v>12.13566</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.716000</v>
+        <v>-364.71600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>43699.021508</v>
+        <v>43699.021507999998</v>
       </c>
       <c r="BE23" s="1">
         <v>12.138617</v>
       </c>
       <c r="BF23" s="1">
-        <v>1537.180000</v>
+        <v>1537.18</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.508000</v>
+        <v>-613.50800000000004</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>43710.395978</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.141777</v>
+        <v>12.141776999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1691.110000</v>
+        <v>1691.11</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1059.680000</v>
+        <v>-1059.68</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>43721.871419</v>
+        <v>43721.871419000003</v>
       </c>
       <c r="BO23" s="1">
         <v>12.144964</v>
       </c>
       <c r="BP23" s="1">
-        <v>1984.810000</v>
+        <v>1984.81</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1833.080000</v>
+        <v>-1833.08</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>43732.570125</v>
+        <v>43732.570124999998</v>
       </c>
       <c r="BT23" s="1">
         <v>12.147936</v>
       </c>
       <c r="BU23" s="1">
-        <v>2369.390000</v>
+        <v>2369.39</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2725.070000</v>
+        <v>-2725.07</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>43743.819919</v>
+        <v>43743.819919000001</v>
       </c>
       <c r="BY23" s="1">
         <v>12.151061</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2854.870000</v>
+        <v>2854.87</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3703.110000</v>
+        <v>-3703.11</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>43756.709423</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.154642</v>
+        <v>12.154642000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4286.870000</v>
+        <v>4286.87</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6061.230000</v>
+        <v>-6061.23</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>43582.553637</v>
+        <v>43582.553636999997</v>
       </c>
       <c r="B24" s="1">
         <v>12.106265</v>
       </c>
       <c r="C24" s="1">
-        <v>1253.370000</v>
+        <v>1253.3699999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-279.647000</v>
+        <v>-279.64699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>43592.695361</v>
+        <v>43592.695360999998</v>
       </c>
       <c r="G24" s="1">
-        <v>12.109082</v>
+        <v>12.109082000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1275.460000</v>
+        <v>1275.46</v>
       </c>
       <c r="I24" s="1">
-        <v>-244.195000</v>
+        <v>-244.19499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>43603.538871</v>
+        <v>43603.538870999997</v>
       </c>
       <c r="L24" s="1">
-        <v>12.112094</v>
+        <v>12.112094000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.930000</v>
+        <v>1306.93</v>
       </c>
       <c r="N24" s="1">
-        <v>-192.081000</v>
+        <v>-192.08099999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>43614.081833</v>
+        <v>43614.081832999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>12.115023</v>
+        <v>12.115023000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.850000</v>
+        <v>1318.85</v>
       </c>
       <c r="S24" s="1">
-        <v>-177.145000</v>
+        <v>-177.14500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>43624.477981</v>
+        <v>43624.477981000004</v>
       </c>
       <c r="V24" s="1">
-        <v>12.117911</v>
+        <v>12.117910999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.570000</v>
+        <v>1332.57</v>
       </c>
       <c r="X24" s="1">
-        <v>-166.712000</v>
+        <v>-166.71199999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>43635.009039</v>
+        <v>43635.009038999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.120836</v>
+        <v>12.120836000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1351.010000</v>
+        <v>1351.01</v>
       </c>
       <c r="AC24" s="1">
-        <v>-166.842000</v>
+        <v>-166.84200000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>43645.476224</v>
+        <v>43645.476223999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>12.123743</v>
+        <v>12.123742999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1364.630000</v>
+        <v>1364.63</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.490000</v>
+        <v>-177.49</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>43656.334034</v>
@@ -6240,452 +6656,452 @@
         <v>12.126759</v>
       </c>
       <c r="AL24" s="1">
-        <v>1385.880000</v>
+        <v>1385.88</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.188000</v>
+        <v>-208.18799999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>43667.262885</v>
+        <v>43667.262884999996</v>
       </c>
       <c r="AP24" s="1">
         <v>12.129795</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1407.840000</v>
+        <v>1407.84</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.335000</v>
+        <v>-252.33500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>43678.132213</v>
+        <v>43678.132212999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>12.132815</v>
+        <v>12.132815000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.550000</v>
+        <v>1432.55</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.520000</v>
+        <v>-312.52</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>43688.761480</v>
+        <v>43688.761480000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.135767</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.725000</v>
+        <v>-364.72500000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>43699.379345</v>
+        <v>43699.379345000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>12.138716</v>
+        <v>12.138716000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1537.210000</v>
+        <v>1537.21</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.490000</v>
+        <v>-613.49</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>43710.769500</v>
+        <v>43710.769500000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>12.141880</v>
+        <v>12.14188</v>
       </c>
       <c r="BK24" s="1">
-        <v>1691.140000</v>
+        <v>1691.14</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1059.520000</v>
+        <v>-1059.52</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>43722.293515</v>
+        <v>43722.293514999998</v>
       </c>
       <c r="BO24" s="1">
         <v>12.145082</v>
       </c>
       <c r="BP24" s="1">
-        <v>1984.820000</v>
+        <v>1984.82</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1833.040000</v>
+        <v>-1833.04</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>43733.406382</v>
+        <v>43733.406382000001</v>
       </c>
       <c r="BT24" s="1">
         <v>12.148168</v>
       </c>
       <c r="BU24" s="1">
-        <v>2369.700000</v>
+        <v>2369.6999999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2724.590000</v>
+        <v>-2724.59</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>43744.230576</v>
+        <v>43744.230576000002</v>
       </c>
       <c r="BY24" s="1">
         <v>12.151175</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2854.180000</v>
+        <v>2854.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3703.170000</v>
+        <v>-3703.17</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>43757.263948</v>
       </c>
       <c r="CD24" s="1">
-        <v>12.154796</v>
+        <v>12.154795999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4272.650000</v>
+        <v>4272.6499999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6070.620000</v>
+        <v>-6070.62</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>43582.898541</v>
+        <v>43582.898541000002</v>
       </c>
       <c r="B25" s="1">
         <v>12.106361</v>
       </c>
       <c r="C25" s="1">
-        <v>1253.300000</v>
+        <v>1253.3</v>
       </c>
       <c r="D25" s="1">
-        <v>-279.621000</v>
+        <v>-279.62099999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>43593.387782</v>
+        <v>43593.387781999998</v>
       </c>
       <c r="G25" s="1">
-        <v>12.109274</v>
+        <v>12.109273999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1274.570000</v>
+        <v>1274.57</v>
       </c>
       <c r="I25" s="1">
-        <v>-244.627000</v>
+        <v>-244.62700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>43603.887559</v>
+        <v>43603.887559000003</v>
       </c>
       <c r="L25" s="1">
-        <v>12.112191</v>
+        <v>12.112190999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.760000</v>
+        <v>1306.76</v>
       </c>
       <c r="N25" s="1">
-        <v>-191.770000</v>
+        <v>-191.77</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>43614.430027</v>
+        <v>43614.430027000002</v>
       </c>
       <c r="Q25" s="1">
         <v>12.115119</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.870000</v>
+        <v>1318.87</v>
       </c>
       <c r="S25" s="1">
-        <v>-177.189000</v>
+        <v>-177.18899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>43624.819756</v>
+        <v>43624.819755999997</v>
       </c>
       <c r="V25" s="1">
         <v>12.118005</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.520000</v>
+        <v>1332.52</v>
       </c>
       <c r="X25" s="1">
-        <v>-166.790000</v>
+        <v>-166.79</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>43635.677163</v>
       </c>
       <c r="AA25" s="1">
-        <v>12.121021</v>
+        <v>12.121021000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1350.970000</v>
+        <v>1350.97</v>
       </c>
       <c r="AC25" s="1">
-        <v>-166.991000</v>
+        <v>-166.99100000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>43646.128385</v>
+        <v>43646.128385000004</v>
       </c>
       <c r="AF25" s="1">
         <v>12.123925</v>
       </c>
       <c r="AG25" s="1">
-        <v>1364.790000</v>
+        <v>1364.79</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.486000</v>
+        <v>-177.48599999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>43656.727893</v>
+        <v>43656.727893000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.126869</v>
+        <v>12.126868999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1385.870000</v>
+        <v>1385.87</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.218000</v>
+        <v>-208.21799999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>43667.670595</v>
+        <v>43667.670595000003</v>
       </c>
       <c r="AP25" s="1">
         <v>12.129908</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1407.830000</v>
+        <v>1407.83</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.375000</v>
+        <v>-252.375</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>43678.496773</v>
+        <v>43678.496772999999</v>
       </c>
       <c r="AU25" s="1">
         <v>12.132916</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.600000</v>
+        <v>1432.6</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.568000</v>
+        <v>-312.56799999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>43689.118598</v>
+        <v>43689.118598000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.135866</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.744000</v>
+        <v>-364.74400000000003</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>43699.739929</v>
+        <v>43699.739929000003</v>
       </c>
       <c r="BE25" s="1">
         <v>12.138817</v>
       </c>
       <c r="BF25" s="1">
-        <v>1537.200000</v>
+        <v>1537.2</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.431000</v>
+        <v>-613.43100000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>43711.199034</v>
+        <v>43711.199033999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.142000</v>
+        <v>12.141999999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1691.120000</v>
+        <v>1691.12</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1059.610000</v>
+        <v>-1059.6099999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>43722.692794</v>
+        <v>43722.692794000002</v>
       </c>
       <c r="BO25" s="1">
         <v>12.145192</v>
       </c>
       <c r="BP25" s="1">
-        <v>1984.790000</v>
+        <v>1984.79</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1832.910000</v>
+        <v>-1832.91</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>43733.835022</v>
+        <v>43733.835021999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>12.148288</v>
+        <v>12.148288000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2369.780000</v>
+        <v>2369.7800000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2724.100000</v>
+        <v>-2724.1</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>43744.668080</v>
+        <v>43744.668080000003</v>
       </c>
       <c r="BY25" s="1">
         <v>12.151297</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2853.830000</v>
+        <v>2853.83</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3702.970000</v>
+        <v>-3702.97</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>43757.793708</v>
+        <v>43757.793707999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.154943</v>
+        <v>12.154942999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4285.120000</v>
+        <v>4285.12</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6058.770000</v>
+        <v>-6058.77</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>43583.581346</v>
+        <v>43583.581345999999</v>
       </c>
       <c r="B26" s="1">
-        <v>12.106550</v>
+        <v>12.10655</v>
       </c>
       <c r="C26" s="1">
-        <v>1253.270000</v>
+        <v>1253.27</v>
       </c>
       <c r="D26" s="1">
-        <v>-279.755000</v>
+        <v>-279.755</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>43593.733002</v>
+        <v>43593.733002000001</v>
       </c>
       <c r="G26" s="1">
-        <v>12.109370</v>
+        <v>12.10937</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.990000</v>
+        <v>1273.99</v>
       </c>
       <c r="I26" s="1">
-        <v>-243.220000</v>
+        <v>-243.22</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>43604.234760</v>
+        <v>43604.234759999999</v>
       </c>
       <c r="L26" s="1">
         <v>12.112287</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.060000</v>
+        <v>1307.06</v>
       </c>
       <c r="N26" s="1">
-        <v>-191.688000</v>
+        <v>-191.68799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>43614.777252</v>
@@ -6694,103 +7110,103 @@
         <v>12.115216</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.920000</v>
+        <v>1318.92</v>
       </c>
       <c r="S26" s="1">
-        <v>-177.145000</v>
+        <v>-177.14500000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>43625.475932</v>
+        <v>43625.475932000001</v>
       </c>
       <c r="V26" s="1">
         <v>12.118188</v>
       </c>
       <c r="W26" s="1">
-        <v>1332.770000</v>
+        <v>1332.77</v>
       </c>
       <c r="X26" s="1">
-        <v>-166.734000</v>
+        <v>-166.73400000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>43636.064525</v>
+        <v>43636.064525000002</v>
       </c>
       <c r="AA26" s="1">
         <v>12.121129</v>
       </c>
       <c r="AB26" s="1">
-        <v>1351.070000</v>
+        <v>1351.07</v>
       </c>
       <c r="AC26" s="1">
-        <v>-166.966000</v>
+        <v>-166.96600000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>43646.507296</v>
+        <v>43646.507296000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.124030</v>
+        <v>12.124029999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1364.640000</v>
+        <v>1364.64</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.609000</v>
+        <v>-177.60900000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>43657.077079</v>
+        <v>43657.077079000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>12.126966</v>
+        <v>12.126965999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1385.890000</v>
+        <v>1385.89</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.208000</v>
+        <v>-208.208</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>43668.030692</v>
       </c>
       <c r="AP26" s="1">
-        <v>12.130009</v>
+        <v>12.130008999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1407.840000</v>
+        <v>1407.84</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.336000</v>
+        <v>-252.33600000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>43678.861332</v>
       </c>
       <c r="AU26" s="1">
-        <v>12.133017</v>
+        <v>12.133017000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1432.590000</v>
+        <v>1432.59</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.529000</v>
+        <v>-312.529</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>43689.538987</v>
@@ -6799,73 +7215,73 @@
         <v>12.135983</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.766000</v>
+        <v>-364.76600000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>43700.460616</v>
+        <v>43700.460615999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.139017</v>
+        <v>12.139017000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1537.210000</v>
+        <v>1537.21</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.467000</v>
+        <v>-613.46699999999998</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>43711.540250</v>
+        <v>43711.540249999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>12.142095</v>
+        <v>12.142094999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1691.220000</v>
+        <v>1691.22</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1059.430000</v>
+        <v>-1059.43</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>43723.086619</v>
+        <v>43723.086619000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>12.145302</v>
+        <v>12.145301999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1984.630000</v>
+        <v>1984.63</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1832.970000</v>
+        <v>-1832.97</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>43734.265482</v>
+        <v>43734.265482000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.148407</v>
+        <v>12.148407000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2370.460000</v>
+        <v>2370.46</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2724.170000</v>
+        <v>-2724.17</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>43745.087195</v>
@@ -6874,30 +7290,31 @@
         <v>12.151413</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2853.840000</v>
+        <v>2853.84</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3702.810000</v>
+        <v>-3702.81</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>43758.309052</v>
+        <v>43758.309051999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.155086</v>
+        <v>12.155086000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4270.210000</v>
+        <v>4270.21</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6048.470000</v>
+        <v>-6048.47</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>